--- a/ftest/data/fm22/Worked_example_policy_calculation_Special conditions_ILallocated.xlsx
+++ b/ftest/data/fm22/Worked_example_policy_calculation_Special conditions_ILallocated.xlsx
@@ -853,7 +853,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1212,85 +1212,16 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1326,13 +1257,85 @@
     <xf numFmtId="3" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1680,8 +1683,8 @@
   </sheetPr>
   <dimension ref="A1:XEU116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52243,96 +52246,96 @@
       <c r="B37" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="162">
-        <v>0</v>
-      </c>
-      <c r="D37" s="163"/>
-      <c r="E37" s="164"/>
-      <c r="F37" s="162">
-        <v>0</v>
-      </c>
-      <c r="G37" s="163"/>
-      <c r="H37" s="164"/>
-      <c r="I37" s="162">
-        <v>0</v>
-      </c>
-      <c r="J37" s="163"/>
-      <c r="K37" s="164"/>
-      <c r="L37" s="162">
-        <v>0</v>
-      </c>
-      <c r="M37" s="163"/>
-      <c r="N37" s="164"/>
-      <c r="O37" s="162">
-        <v>0</v>
-      </c>
-      <c r="P37" s="163"/>
-      <c r="Q37" s="164"/>
-      <c r="R37" s="162">
-        <v>0</v>
-      </c>
-      <c r="S37" s="163"/>
-      <c r="T37" s="164"/>
-      <c r="U37" s="162">
-        <v>0</v>
-      </c>
-      <c r="V37" s="163"/>
-      <c r="W37" s="164"/>
-      <c r="X37" s="162">
+      <c r="C37" s="125">
+        <v>0</v>
+      </c>
+      <c r="D37" s="126"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="125">
+        <v>0</v>
+      </c>
+      <c r="G37" s="126"/>
+      <c r="H37" s="127"/>
+      <c r="I37" s="125">
+        <v>0</v>
+      </c>
+      <c r="J37" s="126"/>
+      <c r="K37" s="127"/>
+      <c r="L37" s="125">
+        <v>0</v>
+      </c>
+      <c r="M37" s="126"/>
+      <c r="N37" s="127"/>
+      <c r="O37" s="125">
+        <v>0</v>
+      </c>
+      <c r="P37" s="126"/>
+      <c r="Q37" s="127"/>
+      <c r="R37" s="125">
+        <v>0</v>
+      </c>
+      <c r="S37" s="126"/>
+      <c r="T37" s="127"/>
+      <c r="U37" s="125">
+        <v>0</v>
+      </c>
+      <c r="V37" s="126"/>
+      <c r="W37" s="127"/>
+      <c r="X37" s="125">
         <v>25000</v>
       </c>
-      <c r="Y37" s="163"/>
-      <c r="Z37" s="164"/>
-      <c r="AA37" s="162">
+      <c r="Y37" s="126"/>
+      <c r="Z37" s="127"/>
+      <c r="AA37" s="125">
         <v>25000</v>
       </c>
-      <c r="AB37" s="163"/>
-      <c r="AC37" s="164"/>
-      <c r="AD37" s="162">
+      <c r="AB37" s="126"/>
+      <c r="AC37" s="127"/>
+      <c r="AD37" s="125">
         <v>25000</v>
       </c>
-      <c r="AE37" s="163"/>
-      <c r="AF37" s="164"/>
-      <c r="AG37" s="162">
+      <c r="AE37" s="126"/>
+      <c r="AF37" s="127"/>
+      <c r="AG37" s="125">
         <v>78783.03</v>
       </c>
-      <c r="AH37" s="163"/>
-      <c r="AI37" s="164"/>
-      <c r="AJ37" s="162">
+      <c r="AH37" s="126"/>
+      <c r="AI37" s="127"/>
+      <c r="AJ37" s="125">
         <v>25000</v>
       </c>
-      <c r="AK37" s="163"/>
-      <c r="AL37" s="164"/>
-      <c r="AM37" s="162">
+      <c r="AK37" s="126"/>
+      <c r="AL37" s="127"/>
+      <c r="AM37" s="125">
         <v>89642.04</v>
       </c>
-      <c r="AN37" s="163"/>
-      <c r="AO37" s="164"/>
-      <c r="AP37" s="162">
+      <c r="AN37" s="126"/>
+      <c r="AO37" s="127"/>
+      <c r="AP37" s="125">
         <v>25000</v>
       </c>
-      <c r="AQ37" s="163"/>
-      <c r="AR37" s="164"/>
-      <c r="AS37" s="162">
+      <c r="AQ37" s="126"/>
+      <c r="AR37" s="127"/>
+      <c r="AS37" s="125">
         <v>85681.982999999993</v>
       </c>
-      <c r="AT37" s="163"/>
-      <c r="AU37" s="164"/>
-      <c r="AV37" s="162">
+      <c r="AT37" s="126"/>
+      <c r="AU37" s="127"/>
+      <c r="AV37" s="125">
         <v>140183.82</v>
       </c>
-      <c r="AW37" s="163"/>
-      <c r="AX37" s="164"/>
-      <c r="AY37" s="162">
+      <c r="AW37" s="126"/>
+      <c r="AX37" s="127"/>
+      <c r="AY37" s="125">
         <v>25000</v>
       </c>
-      <c r="AZ37" s="163"/>
-      <c r="BA37" s="164"/>
-      <c r="BB37" s="162">
+      <c r="AZ37" s="126"/>
+      <c r="BA37" s="127"/>
+      <c r="BB37" s="125">
         <v>462684.45</v>
       </c>
-      <c r="BC37" s="163"/>
-      <c r="BD37" s="164"/>
+      <c r="BC37" s="126"/>
+      <c r="BD37" s="127"/>
       <c r="BE37" s="24">
         <f t="shared" si="1"/>
         <v>1006975.3230000001</v>
@@ -52513,66 +52516,66 @@
       <c r="B39" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="151">
+      <c r="C39" s="128">
         <v>10000</v>
       </c>
-      <c r="D39" s="152"/>
-      <c r="E39" s="152"/>
-      <c r="F39" s="152"/>
-      <c r="G39" s="152"/>
-      <c r="H39" s="152"/>
-      <c r="I39" s="152"/>
-      <c r="J39" s="152"/>
-      <c r="K39" s="152"/>
-      <c r="L39" s="152"/>
-      <c r="M39" s="152"/>
-      <c r="N39" s="152"/>
-      <c r="O39" s="152"/>
-      <c r="P39" s="152"/>
-      <c r="Q39" s="152"/>
-      <c r="R39" s="152"/>
-      <c r="S39" s="152"/>
-      <c r="T39" s="152"/>
-      <c r="U39" s="152"/>
-      <c r="V39" s="152"/>
-      <c r="W39" s="153"/>
-      <c r="X39" s="157">
+      <c r="D39" s="129"/>
+      <c r="E39" s="129"/>
+      <c r="F39" s="129"/>
+      <c r="G39" s="129"/>
+      <c r="H39" s="129"/>
+      <c r="I39" s="129"/>
+      <c r="J39" s="129"/>
+      <c r="K39" s="129"/>
+      <c r="L39" s="129"/>
+      <c r="M39" s="129"/>
+      <c r="N39" s="129"/>
+      <c r="O39" s="129"/>
+      <c r="P39" s="129"/>
+      <c r="Q39" s="129"/>
+      <c r="R39" s="129"/>
+      <c r="S39" s="129"/>
+      <c r="T39" s="129"/>
+      <c r="U39" s="129"/>
+      <c r="V39" s="129"/>
+      <c r="W39" s="130"/>
+      <c r="X39" s="134">
         <v>600000</v>
       </c>
-      <c r="Y39" s="158"/>
-      <c r="Z39" s="158"/>
-      <c r="AA39" s="158"/>
-      <c r="AB39" s="158"/>
-      <c r="AC39" s="158"/>
-      <c r="AD39" s="158"/>
-      <c r="AE39" s="158"/>
-      <c r="AF39" s="158"/>
-      <c r="AG39" s="158"/>
-      <c r="AH39" s="158"/>
-      <c r="AI39" s="158"/>
-      <c r="AJ39" s="158"/>
-      <c r="AK39" s="158"/>
-      <c r="AL39" s="158"/>
-      <c r="AM39" s="158"/>
-      <c r="AN39" s="158"/>
-      <c r="AO39" s="158"/>
-      <c r="AP39" s="158"/>
-      <c r="AQ39" s="158"/>
-      <c r="AR39" s="158"/>
-      <c r="AS39" s="158"/>
-      <c r="AT39" s="158"/>
-      <c r="AU39" s="158"/>
-      <c r="AV39" s="158"/>
-      <c r="AW39" s="158"/>
-      <c r="AX39" s="158"/>
-      <c r="AY39" s="158"/>
-      <c r="AZ39" s="158"/>
-      <c r="BA39" s="159"/>
-      <c r="BB39" s="142">
+      <c r="Y39" s="135"/>
+      <c r="Z39" s="135"/>
+      <c r="AA39" s="135"/>
+      <c r="AB39" s="135"/>
+      <c r="AC39" s="135"/>
+      <c r="AD39" s="135"/>
+      <c r="AE39" s="135"/>
+      <c r="AF39" s="135"/>
+      <c r="AG39" s="135"/>
+      <c r="AH39" s="135"/>
+      <c r="AI39" s="135"/>
+      <c r="AJ39" s="135"/>
+      <c r="AK39" s="135"/>
+      <c r="AL39" s="135"/>
+      <c r="AM39" s="135"/>
+      <c r="AN39" s="135"/>
+      <c r="AO39" s="135"/>
+      <c r="AP39" s="135"/>
+      <c r="AQ39" s="135"/>
+      <c r="AR39" s="135"/>
+      <c r="AS39" s="135"/>
+      <c r="AT39" s="135"/>
+      <c r="AU39" s="135"/>
+      <c r="AV39" s="135"/>
+      <c r="AW39" s="135"/>
+      <c r="AX39" s="135"/>
+      <c r="AY39" s="135"/>
+      <c r="AZ39" s="135"/>
+      <c r="BA39" s="136"/>
+      <c r="BB39" s="139">
         <v>600000</v>
       </c>
-      <c r="BC39" s="143"/>
-      <c r="BD39" s="144"/>
+      <c r="BC39" s="140"/>
+      <c r="BD39" s="141"/>
       <c r="BE39" s="24">
         <f t="shared" ref="BE39:BE40" si="2">SUM(C39:BD39)</f>
         <v>1210000</v>
@@ -52585,66 +52588,66 @@
       <c r="B40" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="154">
+      <c r="C40" s="131">
         <v>100000000</v>
       </c>
-      <c r="D40" s="155"/>
-      <c r="E40" s="155"/>
-      <c r="F40" s="155"/>
-      <c r="G40" s="155"/>
-      <c r="H40" s="155"/>
-      <c r="I40" s="155"/>
-      <c r="J40" s="155"/>
-      <c r="K40" s="155"/>
-      <c r="L40" s="155"/>
-      <c r="M40" s="155"/>
-      <c r="N40" s="155"/>
-      <c r="O40" s="155"/>
-      <c r="P40" s="155"/>
-      <c r="Q40" s="155"/>
-      <c r="R40" s="155"/>
-      <c r="S40" s="155"/>
-      <c r="T40" s="155"/>
-      <c r="U40" s="155"/>
-      <c r="V40" s="155"/>
-      <c r="W40" s="156"/>
-      <c r="X40" s="160">
+      <c r="D40" s="132"/>
+      <c r="E40" s="132"/>
+      <c r="F40" s="132"/>
+      <c r="G40" s="132"/>
+      <c r="H40" s="132"/>
+      <c r="I40" s="132"/>
+      <c r="J40" s="132"/>
+      <c r="K40" s="132"/>
+      <c r="L40" s="132"/>
+      <c r="M40" s="132"/>
+      <c r="N40" s="132"/>
+      <c r="O40" s="132"/>
+      <c r="P40" s="132"/>
+      <c r="Q40" s="132"/>
+      <c r="R40" s="132"/>
+      <c r="S40" s="132"/>
+      <c r="T40" s="132"/>
+      <c r="U40" s="132"/>
+      <c r="V40" s="132"/>
+      <c r="W40" s="133"/>
+      <c r="X40" s="137">
         <v>15000000</v>
       </c>
-      <c r="Y40" s="161"/>
-      <c r="Z40" s="161"/>
-      <c r="AA40" s="161"/>
-      <c r="AB40" s="161"/>
-      <c r="AC40" s="161"/>
-      <c r="AD40" s="161"/>
-      <c r="AE40" s="161"/>
-      <c r="AF40" s="161"/>
-      <c r="AG40" s="161"/>
-      <c r="AH40" s="161"/>
-      <c r="AI40" s="161"/>
-      <c r="AJ40" s="161"/>
-      <c r="AK40" s="161"/>
-      <c r="AL40" s="161"/>
-      <c r="AM40" s="161"/>
-      <c r="AN40" s="161"/>
-      <c r="AO40" s="161"/>
-      <c r="AP40" s="161"/>
-      <c r="AQ40" s="161"/>
-      <c r="AR40" s="161"/>
-      <c r="AS40" s="161"/>
-      <c r="AT40" s="161"/>
-      <c r="AU40" s="161"/>
-      <c r="AV40" s="161"/>
-      <c r="AW40" s="161"/>
-      <c r="AX40" s="161"/>
-      <c r="AY40" s="161"/>
-      <c r="AZ40" s="161"/>
-      <c r="BA40" s="161"/>
-      <c r="BB40" s="145">
+      <c r="Y40" s="138"/>
+      <c r="Z40" s="138"/>
+      <c r="AA40" s="138"/>
+      <c r="AB40" s="138"/>
+      <c r="AC40" s="138"/>
+      <c r="AD40" s="138"/>
+      <c r="AE40" s="138"/>
+      <c r="AF40" s="138"/>
+      <c r="AG40" s="138"/>
+      <c r="AH40" s="138"/>
+      <c r="AI40" s="138"/>
+      <c r="AJ40" s="138"/>
+      <c r="AK40" s="138"/>
+      <c r="AL40" s="138"/>
+      <c r="AM40" s="138"/>
+      <c r="AN40" s="138"/>
+      <c r="AO40" s="138"/>
+      <c r="AP40" s="138"/>
+      <c r="AQ40" s="138"/>
+      <c r="AR40" s="138"/>
+      <c r="AS40" s="138"/>
+      <c r="AT40" s="138"/>
+      <c r="AU40" s="138"/>
+      <c r="AV40" s="138"/>
+      <c r="AW40" s="138"/>
+      <c r="AX40" s="138"/>
+      <c r="AY40" s="138"/>
+      <c r="AZ40" s="138"/>
+      <c r="BA40" s="138"/>
+      <c r="BB40" s="142">
         <v>15000000</v>
       </c>
-      <c r="BC40" s="146"/>
-      <c r="BD40" s="147"/>
+      <c r="BC40" s="143"/>
+      <c r="BD40" s="144"/>
       <c r="BE40" s="24">
         <f t="shared" si="2"/>
         <v>130000000</v>
@@ -52653,60 +52656,60 @@
     <row r="41" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A41" s="33"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="148"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-      <c r="N41" s="149"/>
-      <c r="O41" s="149"/>
-      <c r="P41" s="149"/>
-      <c r="Q41" s="149"/>
-      <c r="R41" s="149"/>
-      <c r="S41" s="149"/>
-      <c r="T41" s="149"/>
-      <c r="U41" s="149"/>
-      <c r="V41" s="149"/>
-      <c r="W41" s="149"/>
-      <c r="X41" s="149"/>
-      <c r="Y41" s="149"/>
-      <c r="Z41" s="149"/>
-      <c r="AA41" s="149"/>
-      <c r="AB41" s="149"/>
-      <c r="AC41" s="149"/>
-      <c r="AD41" s="149"/>
-      <c r="AE41" s="149"/>
-      <c r="AF41" s="149"/>
-      <c r="AG41" s="149"/>
-      <c r="AH41" s="149"/>
-      <c r="AI41" s="149"/>
-      <c r="AJ41" s="149"/>
-      <c r="AK41" s="149"/>
-      <c r="AL41" s="149"/>
-      <c r="AM41" s="149"/>
-      <c r="AN41" s="149"/>
-      <c r="AO41" s="149"/>
-      <c r="AP41" s="149"/>
-      <c r="AQ41" s="149"/>
-      <c r="AR41" s="149"/>
-      <c r="AS41" s="149"/>
-      <c r="AT41" s="149"/>
-      <c r="AU41" s="149"/>
-      <c r="AV41" s="149"/>
-      <c r="AW41" s="149"/>
-      <c r="AX41" s="149"/>
-      <c r="AY41" s="149"/>
-      <c r="AZ41" s="149"/>
-      <c r="BA41" s="149"/>
-      <c r="BB41" s="149"/>
-      <c r="BC41" s="149"/>
-      <c r="BD41" s="150"/>
+      <c r="C41" s="145"/>
+      <c r="D41" s="146"/>
+      <c r="E41" s="146"/>
+      <c r="F41" s="146"/>
+      <c r="G41" s="146"/>
+      <c r="H41" s="146"/>
+      <c r="I41" s="146"/>
+      <c r="J41" s="146"/>
+      <c r="K41" s="146"/>
+      <c r="L41" s="146"/>
+      <c r="M41" s="146"/>
+      <c r="N41" s="146"/>
+      <c r="O41" s="146"/>
+      <c r="P41" s="146"/>
+      <c r="Q41" s="146"/>
+      <c r="R41" s="146"/>
+      <c r="S41" s="146"/>
+      <c r="T41" s="146"/>
+      <c r="U41" s="146"/>
+      <c r="V41" s="146"/>
+      <c r="W41" s="146"/>
+      <c r="X41" s="146"/>
+      <c r="Y41" s="146"/>
+      <c r="Z41" s="146"/>
+      <c r="AA41" s="146"/>
+      <c r="AB41" s="146"/>
+      <c r="AC41" s="146"/>
+      <c r="AD41" s="146"/>
+      <c r="AE41" s="146"/>
+      <c r="AF41" s="146"/>
+      <c r="AG41" s="146"/>
+      <c r="AH41" s="146"/>
+      <c r="AI41" s="146"/>
+      <c r="AJ41" s="146"/>
+      <c r="AK41" s="146"/>
+      <c r="AL41" s="146"/>
+      <c r="AM41" s="146"/>
+      <c r="AN41" s="146"/>
+      <c r="AO41" s="146"/>
+      <c r="AP41" s="146"/>
+      <c r="AQ41" s="146"/>
+      <c r="AR41" s="146"/>
+      <c r="AS41" s="146"/>
+      <c r="AT41" s="146"/>
+      <c r="AU41" s="146"/>
+      <c r="AV41" s="146"/>
+      <c r="AW41" s="146"/>
+      <c r="AX41" s="146"/>
+      <c r="AY41" s="146"/>
+      <c r="AZ41" s="146"/>
+      <c r="BA41" s="146"/>
+      <c r="BB41" s="146"/>
+      <c r="BC41" s="146"/>
+      <c r="BD41" s="147"/>
     </row>
     <row r="42" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
@@ -53847,114 +53850,114 @@
       <c r="B51" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="139">
+      <c r="C51" s="148">
         <f>SUMIF($C$32:$BD$32,C32,$C$48:$BD$48)</f>
         <v>17073021.600000001</v>
       </c>
-      <c r="D51" s="140"/>
-      <c r="E51" s="141"/>
-      <c r="F51" s="139">
+      <c r="D51" s="149"/>
+      <c r="E51" s="150"/>
+      <c r="F51" s="148">
         <f>SUMIF($C$32:$BD$32,F32,$C$48:$BD$48)</f>
         <v>26880978.400000002</v>
       </c>
-      <c r="G51" s="140"/>
-      <c r="H51" s="141"/>
-      <c r="I51" s="139">
+      <c r="G51" s="149"/>
+      <c r="H51" s="150"/>
+      <c r="I51" s="148">
         <f>SUMIF($C$32:$BD$32,I32,$C$48:$BD$48)</f>
         <v>17351347.5</v>
       </c>
-      <c r="J51" s="140"/>
-      <c r="K51" s="141"/>
-      <c r="L51" s="139">
+      <c r="J51" s="149"/>
+      <c r="K51" s="150"/>
+      <c r="L51" s="148">
         <f>SUMIF($C$32:$BD$32,L32,$C$48:$BD$48)</f>
         <v>1601889</v>
       </c>
-      <c r="M51" s="140"/>
-      <c r="N51" s="141"/>
-      <c r="O51" s="139">
+      <c r="M51" s="149"/>
+      <c r="N51" s="150"/>
+      <c r="O51" s="148">
         <f>SUMIF($C$32:$BD$32,O32,$C$48:$BD$48)</f>
         <v>8455635.3000000007</v>
       </c>
-      <c r="P51" s="140"/>
-      <c r="Q51" s="141"/>
-      <c r="R51" s="139">
+      <c r="P51" s="149"/>
+      <c r="Q51" s="150"/>
+      <c r="R51" s="148">
         <f>SUMIF($C$32:$BD$32,R32,$C$48:$BD$48)</f>
         <v>2262290.4</v>
       </c>
-      <c r="S51" s="140"/>
-      <c r="T51" s="141"/>
-      <c r="U51" s="139">
+      <c r="S51" s="149"/>
+      <c r="T51" s="150"/>
+      <c r="U51" s="148">
         <f>SUMIF($C$32:$BD$32,U32,$C$48:$BD$48)</f>
         <v>6262104</v>
       </c>
-      <c r="V51" s="140"/>
-      <c r="W51" s="141"/>
-      <c r="X51" s="139">
+      <c r="V51" s="149"/>
+      <c r="W51" s="150"/>
+      <c r="X51" s="148">
         <f>SUMIF($C$32:$BD$32,X32,$C$48:$BD$48)</f>
         <v>250375.2</v>
       </c>
-      <c r="Y51" s="140"/>
-      <c r="Z51" s="141"/>
-      <c r="AA51" s="139">
+      <c r="Y51" s="149"/>
+      <c r="Z51" s="150"/>
+      <c r="AA51" s="148">
         <f>SUMIF($C$32:$BD$32,AA32,$C$48:$BD$48)</f>
         <v>214653.5</v>
       </c>
-      <c r="AB51" s="140"/>
-      <c r="AC51" s="141"/>
-      <c r="AD51" s="139">
+      <c r="AB51" s="149"/>
+      <c r="AC51" s="150"/>
+      <c r="AD51" s="148">
         <f>SUMIF($C$32:$BD$32,AD32,$C$48:$BD$48)</f>
         <v>32660.400000000001</v>
       </c>
-      <c r="AE51" s="140"/>
-      <c r="AF51" s="141"/>
-      <c r="AG51" s="139">
+      <c r="AE51" s="149"/>
+      <c r="AF51" s="150"/>
+      <c r="AG51" s="148">
         <f>SUMIF($C$32:$BD$32,AG32,$C$48:$BD$48)</f>
         <v>2626101</v>
       </c>
-      <c r="AH51" s="140"/>
-      <c r="AI51" s="141"/>
-      <c r="AJ51" s="139">
+      <c r="AH51" s="149"/>
+      <c r="AI51" s="150"/>
+      <c r="AJ51" s="148">
         <f>SUMIF($C$32:$BD$32,AJ32,$C$48:$BD$48)</f>
         <v>25348.2</v>
       </c>
-      <c r="AK51" s="140"/>
-      <c r="AL51" s="141"/>
-      <c r="AM51" s="139">
+      <c r="AK51" s="149"/>
+      <c r="AL51" s="150"/>
+      <c r="AM51" s="148">
         <f>SUMIF($C$32:$BD$32,AM32,$C$48:$BD$48)</f>
         <v>2091647.5999999999</v>
       </c>
-      <c r="AN51" s="140"/>
-      <c r="AO51" s="141"/>
-      <c r="AP51" s="139">
+      <c r="AN51" s="149"/>
+      <c r="AO51" s="150"/>
+      <c r="AP51" s="148">
         <f>SUMIF($C$32:$BD$32,AP32,$C$48:$BD$48)</f>
         <v>14775.599999999999</v>
       </c>
-      <c r="AQ51" s="140"/>
-      <c r="AR51" s="141"/>
-      <c r="AS51" s="139">
+      <c r="AQ51" s="149"/>
+      <c r="AR51" s="150"/>
+      <c r="AS51" s="148">
         <f>SUMIF($C$32:$BD$32,AS32,$C$48:$BD$48)</f>
         <v>856819.83</v>
       </c>
-      <c r="AT51" s="140"/>
-      <c r="AU51" s="141"/>
-      <c r="AV51" s="139">
+      <c r="AT51" s="149"/>
+      <c r="AU51" s="150"/>
+      <c r="AV51" s="148">
         <f>SUMIF($C$32:$BD$32,AV32,$C$48:$BD$48)</f>
         <v>467279.4</v>
       </c>
-      <c r="AW51" s="140"/>
-      <c r="AX51" s="141"/>
-      <c r="AY51" s="139">
+      <c r="AW51" s="149"/>
+      <c r="AX51" s="150"/>
+      <c r="AY51" s="148">
         <f>SUMIF($C$32:$BD$32,AY32,$C$48:$BD$48)</f>
         <v>163795.5</v>
       </c>
-      <c r="AZ51" s="140"/>
-      <c r="BA51" s="141"/>
-      <c r="BB51" s="139">
+      <c r="AZ51" s="149"/>
+      <c r="BA51" s="150"/>
+      <c r="BB51" s="148">
         <f>SUMIF($C$32:$BD$32,BB32,$C$48:$BD$48)</f>
         <v>4626844.5</v>
       </c>
-      <c r="BC51" s="140"/>
-      <c r="BD51" s="141"/>
+      <c r="BC51" s="149"/>
+      <c r="BD51" s="150"/>
       <c r="BE51" s="30">
         <f>SUM(C51:BD51)</f>
         <v>91257566.930000007</v>
@@ -53967,114 +53970,114 @@
       <c r="B52" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="139">
+      <c r="C52" s="148">
         <f>MAX(C51-C37,0)</f>
         <v>17073021.600000001</v>
       </c>
-      <c r="D52" s="140"/>
-      <c r="E52" s="141"/>
-      <c r="F52" s="139">
+      <c r="D52" s="149"/>
+      <c r="E52" s="150"/>
+      <c r="F52" s="148">
         <f t="shared" ref="F52" si="6">MAX(F51-F37,0)</f>
         <v>26880978.400000002</v>
       </c>
-      <c r="G52" s="140"/>
-      <c r="H52" s="141"/>
-      <c r="I52" s="139">
+      <c r="G52" s="149"/>
+      <c r="H52" s="150"/>
+      <c r="I52" s="148">
         <f t="shared" ref="I52" si="7">MAX(I51-I37,0)</f>
         <v>17351347.5</v>
       </c>
-      <c r="J52" s="140"/>
-      <c r="K52" s="141"/>
-      <c r="L52" s="139">
+      <c r="J52" s="149"/>
+      <c r="K52" s="150"/>
+      <c r="L52" s="148">
         <f t="shared" ref="L52" si="8">MAX(L51-L37,0)</f>
         <v>1601889</v>
       </c>
-      <c r="M52" s="140"/>
-      <c r="N52" s="141"/>
-      <c r="O52" s="139">
+      <c r="M52" s="149"/>
+      <c r="N52" s="150"/>
+      <c r="O52" s="148">
         <f t="shared" ref="O52" si="9">MAX(O51-O37,0)</f>
         <v>8455635.3000000007</v>
       </c>
-      <c r="P52" s="140"/>
-      <c r="Q52" s="141"/>
-      <c r="R52" s="139">
+      <c r="P52" s="149"/>
+      <c r="Q52" s="150"/>
+      <c r="R52" s="148">
         <f t="shared" ref="R52" si="10">MAX(R51-R37,0)</f>
         <v>2262290.4</v>
       </c>
-      <c r="S52" s="140"/>
-      <c r="T52" s="141"/>
-      <c r="U52" s="139">
+      <c r="S52" s="149"/>
+      <c r="T52" s="150"/>
+      <c r="U52" s="148">
         <f t="shared" ref="U52" si="11">MAX(U51-U37,0)</f>
         <v>6262104</v>
       </c>
-      <c r="V52" s="140"/>
-      <c r="W52" s="141"/>
-      <c r="X52" s="139">
+      <c r="V52" s="149"/>
+      <c r="W52" s="150"/>
+      <c r="X52" s="148">
         <f t="shared" ref="X52" si="12">MAX(X51-X37,0)</f>
         <v>225375.2</v>
       </c>
-      <c r="Y52" s="140"/>
-      <c r="Z52" s="141"/>
-      <c r="AA52" s="139">
+      <c r="Y52" s="149"/>
+      <c r="Z52" s="150"/>
+      <c r="AA52" s="148">
         <f t="shared" ref="AA52" si="13">MAX(AA51-AA37,0)</f>
         <v>189653.5</v>
       </c>
-      <c r="AB52" s="140"/>
-      <c r="AC52" s="141"/>
-      <c r="AD52" s="139">
+      <c r="AB52" s="149"/>
+      <c r="AC52" s="150"/>
+      <c r="AD52" s="148">
         <f t="shared" ref="AD52" si="14">MAX(AD51-AD37,0)</f>
         <v>7660.4000000000015</v>
       </c>
-      <c r="AE52" s="140"/>
-      <c r="AF52" s="141"/>
-      <c r="AG52" s="139">
+      <c r="AE52" s="149"/>
+      <c r="AF52" s="150"/>
+      <c r="AG52" s="148">
         <f t="shared" ref="AG52" si="15">MAX(AG51-AG37,0)</f>
         <v>2547317.9700000002</v>
       </c>
-      <c r="AH52" s="140"/>
-      <c r="AI52" s="141"/>
-      <c r="AJ52" s="139">
+      <c r="AH52" s="149"/>
+      <c r="AI52" s="150"/>
+      <c r="AJ52" s="148">
         <f t="shared" ref="AJ52" si="16">MAX(AJ51-AJ37,0)</f>
         <v>348.20000000000073</v>
       </c>
-      <c r="AK52" s="140"/>
-      <c r="AL52" s="141"/>
-      <c r="AM52" s="139">
+      <c r="AK52" s="149"/>
+      <c r="AL52" s="150"/>
+      <c r="AM52" s="148">
         <f t="shared" ref="AM52" si="17">MAX(AM51-AM37,0)</f>
         <v>2002005.5599999998</v>
       </c>
-      <c r="AN52" s="140"/>
-      <c r="AO52" s="141"/>
-      <c r="AP52" s="139">
+      <c r="AN52" s="149"/>
+      <c r="AO52" s="150"/>
+      <c r="AP52" s="148">
         <f t="shared" ref="AP52" si="18">MAX(AP51-AP37,0)</f>
         <v>0</v>
       </c>
-      <c r="AQ52" s="140"/>
-      <c r="AR52" s="141"/>
-      <c r="AS52" s="139">
+      <c r="AQ52" s="149"/>
+      <c r="AR52" s="150"/>
+      <c r="AS52" s="148">
         <f t="shared" ref="AS52" si="19">MAX(AS51-AS37,0)</f>
         <v>771137.84699999995</v>
       </c>
-      <c r="AT52" s="140"/>
-      <c r="AU52" s="141"/>
-      <c r="AV52" s="139">
+      <c r="AT52" s="149"/>
+      <c r="AU52" s="150"/>
+      <c r="AV52" s="148">
         <f t="shared" ref="AV52" si="20">MAX(AV51-AV37,0)</f>
         <v>327095.58</v>
       </c>
-      <c r="AW52" s="140"/>
-      <c r="AX52" s="141"/>
-      <c r="AY52" s="139">
+      <c r="AW52" s="149"/>
+      <c r="AX52" s="150"/>
+      <c r="AY52" s="148">
         <f t="shared" ref="AY52" si="21">MAX(AY51-AY37,0)</f>
         <v>138795.5</v>
       </c>
-      <c r="AZ52" s="140"/>
-      <c r="BA52" s="141"/>
-      <c r="BB52" s="139">
+      <c r="AZ52" s="149"/>
+      <c r="BA52" s="150"/>
+      <c r="BB52" s="148">
         <f t="shared" ref="BB52" si="22">MAX(BB51-BB37,0)</f>
         <v>4164160.05</v>
       </c>
-      <c r="BC52" s="140"/>
-      <c r="BD52" s="141"/>
+      <c r="BC52" s="149"/>
+      <c r="BD52" s="150"/>
       <c r="BE52" s="30">
         <f>SUM(C52:BD52)</f>
         <v>90260816.007000014</v>
@@ -54091,114 +54094,114 @@
       <c r="B53" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="136">
+      <c r="C53" s="151">
         <f>C51-C52</f>
         <v>0</v>
       </c>
-      <c r="D53" s="137"/>
-      <c r="E53" s="138"/>
-      <c r="F53" s="136">
+      <c r="D53" s="152"/>
+      <c r="E53" s="153"/>
+      <c r="F53" s="151">
         <f>F51-F52</f>
         <v>0</v>
       </c>
-      <c r="G53" s="137"/>
-      <c r="H53" s="138"/>
-      <c r="I53" s="136">
+      <c r="G53" s="152"/>
+      <c r="H53" s="153"/>
+      <c r="I53" s="151">
         <f t="shared" ref="I53" si="23">I51-I52</f>
         <v>0</v>
       </c>
-      <c r="J53" s="137"/>
-      <c r="K53" s="138"/>
-      <c r="L53" s="136">
+      <c r="J53" s="152"/>
+      <c r="K53" s="153"/>
+      <c r="L53" s="151">
         <f t="shared" ref="L53" si="24">L51-L52</f>
         <v>0</v>
       </c>
-      <c r="M53" s="137"/>
-      <c r="N53" s="138"/>
-      <c r="O53" s="136">
+      <c r="M53" s="152"/>
+      <c r="N53" s="153"/>
+      <c r="O53" s="151">
         <f t="shared" ref="O53" si="25">O51-O52</f>
         <v>0</v>
       </c>
-      <c r="P53" s="137"/>
-      <c r="Q53" s="138"/>
-      <c r="R53" s="136">
+      <c r="P53" s="152"/>
+      <c r="Q53" s="153"/>
+      <c r="R53" s="151">
         <f t="shared" ref="R53" si="26">R51-R52</f>
         <v>0</v>
       </c>
-      <c r="S53" s="137"/>
-      <c r="T53" s="138"/>
-      <c r="U53" s="136">
+      <c r="S53" s="152"/>
+      <c r="T53" s="153"/>
+      <c r="U53" s="151">
         <f t="shared" ref="U53" si="27">U51-U52</f>
         <v>0</v>
       </c>
-      <c r="V53" s="137"/>
-      <c r="W53" s="138"/>
-      <c r="X53" s="136">
+      <c r="V53" s="152"/>
+      <c r="W53" s="153"/>
+      <c r="X53" s="151">
         <f t="shared" ref="X53" si="28">X51-X52</f>
         <v>25000</v>
       </c>
-      <c r="Y53" s="137"/>
-      <c r="Z53" s="138"/>
-      <c r="AA53" s="136">
+      <c r="Y53" s="152"/>
+      <c r="Z53" s="153"/>
+      <c r="AA53" s="151">
         <f t="shared" ref="AA53" si="29">AA51-AA52</f>
         <v>25000</v>
       </c>
-      <c r="AB53" s="137"/>
-      <c r="AC53" s="138"/>
-      <c r="AD53" s="136">
+      <c r="AB53" s="152"/>
+      <c r="AC53" s="153"/>
+      <c r="AD53" s="151">
         <f t="shared" ref="AD53" si="30">AD51-AD52</f>
         <v>25000</v>
       </c>
-      <c r="AE53" s="137"/>
-      <c r="AF53" s="138"/>
-      <c r="AG53" s="136">
+      <c r="AE53" s="152"/>
+      <c r="AF53" s="153"/>
+      <c r="AG53" s="151">
         <f t="shared" ref="AG53" si="31">AG51-AG52</f>
         <v>78783.029999999795</v>
       </c>
-      <c r="AH53" s="137"/>
-      <c r="AI53" s="138"/>
-      <c r="AJ53" s="136">
+      <c r="AH53" s="152"/>
+      <c r="AI53" s="153"/>
+      <c r="AJ53" s="151">
         <f t="shared" ref="AJ53" si="32">AJ51-AJ52</f>
         <v>25000</v>
       </c>
-      <c r="AK53" s="137"/>
-      <c r="AL53" s="138"/>
-      <c r="AM53" s="136">
+      <c r="AK53" s="152"/>
+      <c r="AL53" s="153"/>
+      <c r="AM53" s="151">
         <f t="shared" ref="AM53" si="33">AM51-AM52</f>
         <v>89642.040000000037</v>
       </c>
-      <c r="AN53" s="137"/>
-      <c r="AO53" s="138"/>
-      <c r="AP53" s="136">
+      <c r="AN53" s="152"/>
+      <c r="AO53" s="153"/>
+      <c r="AP53" s="151">
         <f t="shared" ref="AP53" si="34">AP51-AP52</f>
         <v>14775.599999999999</v>
       </c>
-      <c r="AQ53" s="137"/>
-      <c r="AR53" s="138"/>
-      <c r="AS53" s="136">
+      <c r="AQ53" s="152"/>
+      <c r="AR53" s="153"/>
+      <c r="AS53" s="151">
         <f t="shared" ref="AS53" si="35">AS51-AS52</f>
         <v>85681.983000000007</v>
       </c>
-      <c r="AT53" s="137"/>
-      <c r="AU53" s="138"/>
-      <c r="AV53" s="136">
+      <c r="AT53" s="152"/>
+      <c r="AU53" s="153"/>
+      <c r="AV53" s="151">
         <f t="shared" ref="AV53" si="36">AV51-AV52</f>
         <v>140183.82</v>
       </c>
-      <c r="AW53" s="137"/>
-      <c r="AX53" s="138"/>
-      <c r="AY53" s="136">
+      <c r="AW53" s="152"/>
+      <c r="AX53" s="153"/>
+      <c r="AY53" s="151">
         <f t="shared" ref="AY53" si="37">AY51-AY52</f>
         <v>25000</v>
       </c>
-      <c r="AZ53" s="137"/>
-      <c r="BA53" s="138"/>
-      <c r="BB53" s="136">
+      <c r="AZ53" s="152"/>
+      <c r="BA53" s="153"/>
+      <c r="BB53" s="151">
         <f t="shared" ref="BB53" si="38">BB51-BB52</f>
         <v>462684.45000000019</v>
       </c>
-      <c r="BC53" s="137"/>
-      <c r="BD53" s="138"/>
+      <c r="BC53" s="152"/>
+      <c r="BD53" s="153"/>
       <c r="BE53" s="30">
         <f>SUM(C53:BD53)</f>
         <v>996750.92299999995</v>
@@ -54214,7 +54217,7 @@
         <v>4121000.8000000003</v>
       </c>
       <c r="D54" s="123">
-        <f t="shared" ref="D54:BD54" si="39">$C52*D48/SUMIF($C$32:$BD$32,D32,$C$48:$BD$48)</f>
+        <f t="shared" ref="D54:E54" si="39">$C52*D48/SUMIF($C$32:$BD$32,D32,$C$48:$BD$48)</f>
         <v>7374889.6000000006</v>
       </c>
       <c r="E54" s="123">
@@ -54334,7 +54337,7 @@
         <v>0</v>
       </c>
       <c r="AH54" s="123">
-        <f t="shared" ref="AH54:AL54" si="49">$AG52*AH48/SUMIF($C$32:$BD$32,AH32,$C$48:$BD$48)</f>
+        <f t="shared" ref="AH54:AI54" si="49">$AG52*AH48/SUMIF($C$32:$BD$32,AH32,$C$48:$BD$48)</f>
         <v>2547317.9700000002</v>
       </c>
       <c r="AI54" s="123">
@@ -54346,7 +54349,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="123">
-        <f t="shared" ref="AK54:BD54" si="50">$AJ52*AK48/SUMIF($C$32:$BD$32,AK32,$C$48:$BD$48)</f>
+        <f t="shared" ref="AK54:AL54" si="50">$AJ52*AK48/SUMIF($C$32:$BD$32,AK32,$C$48:$BD$48)</f>
         <v>348.20000000000073</v>
       </c>
       <c r="AL54" s="123">
@@ -54456,7 +54459,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="36">
-        <f t="shared" ref="H54:H55" si="59">F53*H$46/SUMIF($C$32:$BD$32,H$32,$C$46:$BD$46)</f>
+        <f t="shared" ref="H55" si="59">F53*H$46/SUMIF($C$32:$BD$32,H$32,$C$46:$BD$46)</f>
         <v>0</v>
       </c>
       <c r="I55" s="36">
@@ -54468,7 +54471,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="36">
-        <f t="shared" ref="K54:K55" si="62">I53*K$46/SUMIF($C$32:$BD$32,K$32,$C$46:$BD$46)</f>
+        <f t="shared" ref="K55" si="62">I53*K$46/SUMIF($C$32:$BD$32,K$32,$C$46:$BD$46)</f>
         <v>0</v>
       </c>
       <c r="L55" s="36">
@@ -54480,7 +54483,7 @@
         <v>0</v>
       </c>
       <c r="N55" s="36">
-        <f t="shared" ref="N54:N55" si="65">L53*N$46/SUMIF($C$32:$BD$32,N$32,$C$46:$BD$46)</f>
+        <f t="shared" ref="N55" si="65">L53*N$46/SUMIF($C$32:$BD$32,N$32,$C$46:$BD$46)</f>
         <v>0</v>
       </c>
       <c r="O55" s="36">
@@ -54492,7 +54495,7 @@
         <v>0</v>
       </c>
       <c r="Q55" s="36">
-        <f t="shared" ref="Q54:Q55" si="68">O53*Q$46/SUMIF($C$32:$BD$32,Q$32,$C$46:$BD$46)</f>
+        <f t="shared" ref="Q55" si="68">O53*Q$46/SUMIF($C$32:$BD$32,Q$32,$C$46:$BD$46)</f>
         <v>0</v>
       </c>
       <c r="R55" s="36">
@@ -54504,7 +54507,7 @@
         <v>0</v>
       </c>
       <c r="T55" s="36">
-        <f t="shared" ref="T54:T55" si="71">R53*T$46/SUMIF($C$32:$BD$32,T$32,$C$46:$BD$46)</f>
+        <f t="shared" ref="T55" si="71">R53*T$46/SUMIF($C$32:$BD$32,T$32,$C$46:$BD$46)</f>
         <v>0</v>
       </c>
       <c r="U55" s="36">
@@ -54516,7 +54519,7 @@
         <v>0</v>
       </c>
       <c r="W55" s="36">
-        <f t="shared" ref="W54:W55" si="74">U53*W$46/SUMIF($C$32:$BD$32,W$32,$C$46:$BD$46)</f>
+        <f t="shared" ref="W55" si="74">U53*W$46/SUMIF($C$32:$BD$32,W$32,$C$46:$BD$46)</f>
         <v>0</v>
       </c>
       <c r="X55" s="36">
@@ -54528,7 +54531,7 @@
         <v>11049.816435493611</v>
       </c>
       <c r="Z55" s="36">
-        <f t="shared" ref="Z54:Z55" si="77">X53*Z$46/SUMIF($C$32:$BD$32,Z$32,$C$46:$BD$46)</f>
+        <f t="shared" ref="Z55" si="77">X53*Z$46/SUMIF($C$32:$BD$32,Z$32,$C$46:$BD$46)</f>
         <v>0</v>
       </c>
       <c r="AA55" s="36">
@@ -54540,7 +54543,7 @@
         <v>25000</v>
       </c>
       <c r="AC55" s="36">
-        <f t="shared" ref="AC54:AC55" si="80">AA53*AC$46/SUMIF($C$32:$BD$32,AC$32,$C$46:$BD$46)</f>
+        <f t="shared" ref="AC55" si="80">AA53*AC$46/SUMIF($C$32:$BD$32,AC$32,$C$46:$BD$46)</f>
         <v>0</v>
       </c>
       <c r="AD55" s="36">
@@ -54552,7 +54555,7 @@
         <v>25000</v>
       </c>
       <c r="AF55" s="36">
-        <f t="shared" ref="AF54:AF55" si="83">AD53*AF$46/SUMIF($C$32:$BD$32,AF$32,$C$46:$BD$46)</f>
+        <f t="shared" ref="AF55" si="83">AD53*AF$46/SUMIF($C$32:$BD$32,AF$32,$C$46:$BD$46)</f>
         <v>0</v>
       </c>
       <c r="AG55" s="36">
@@ -54564,7 +54567,7 @@
         <v>78783.029999999795</v>
       </c>
       <c r="AI55" s="36">
-        <f t="shared" ref="AI54:AI55" si="86">AG53*AI$46/SUMIF($C$32:$BD$32,AI$32,$C$46:$BD$46)</f>
+        <f t="shared" ref="AI55" si="86">AG53*AI$46/SUMIF($C$32:$BD$32,AI$32,$C$46:$BD$46)</f>
         <v>0</v>
       </c>
       <c r="AJ55" s="36">
@@ -54576,7 +54579,7 @@
         <v>25000</v>
       </c>
       <c r="AL55" s="36">
-        <f t="shared" ref="AL54:AL55" si="89">AJ53*AL$46/SUMIF($C$32:$BD$32,AL$32,$C$46:$BD$46)</f>
+        <f t="shared" ref="AL55" si="89">AJ53*AL$46/SUMIF($C$32:$BD$32,AL$32,$C$46:$BD$46)</f>
         <v>0</v>
       </c>
       <c r="AM55" s="36">
@@ -54588,7 +54591,7 @@
         <v>89642.040000000037</v>
       </c>
       <c r="AO55" s="36">
-        <f t="shared" ref="AO54:AO55" si="92">AM53*AO$46/SUMIF($C$32:$BD$32,AO$32,$C$46:$BD$46)</f>
+        <f t="shared" ref="AO55" si="92">AM53*AO$46/SUMIF($C$32:$BD$32,AO$32,$C$46:$BD$46)</f>
         <v>0</v>
       </c>
       <c r="AP55" s="36">
@@ -54600,7 +54603,7 @@
         <v>14775.599999999999</v>
       </c>
       <c r="AR55" s="36">
-        <f t="shared" ref="AR54:AR55" si="95">AP53*AR$46/SUMIF($C$32:$BD$32,AR$32,$C$46:$BD$46)</f>
+        <f t="shared" ref="AR55" si="95">AP53*AR$46/SUMIF($C$32:$BD$32,AR$32,$C$46:$BD$46)</f>
         <v>0</v>
       </c>
       <c r="AS55" s="36">
@@ -54612,7 +54615,7 @@
         <v>9000.0000000000018</v>
       </c>
       <c r="AU55" s="36">
-        <f t="shared" ref="AU54:AU55" si="98">AS53*AU$46/SUMIF($C$32:$BD$32,AU$32,$C$46:$BD$46)</f>
+        <f t="shared" ref="AU55" si="98">AS53*AU$46/SUMIF($C$32:$BD$32,AU$32,$C$46:$BD$46)</f>
         <v>76681.983000000007</v>
       </c>
       <c r="AV55" s="36">
@@ -54624,7 +54627,7 @@
         <v>140183.82</v>
       </c>
       <c r="AX55" s="36">
-        <f t="shared" ref="AX54:AX55" si="101">AV53*AX$46/SUMIF($C$32:$BD$32,AX$32,$C$46:$BD$46)</f>
+        <f t="shared" ref="AX55" si="101">AV53*AX$46/SUMIF($C$32:$BD$32,AX$32,$C$46:$BD$46)</f>
         <v>0</v>
       </c>
       <c r="AY55" s="36">
@@ -54636,7 +54639,7 @@
         <v>25000</v>
       </c>
       <c r="BA55" s="36">
-        <f t="shared" ref="BA54:BA55" si="104">AY53*BA$46/SUMIF($C$32:$BD$32,BA$32,$C$46:$BD$46)</f>
+        <f t="shared" ref="BA55" si="104">AY53*BA$46/SUMIF($C$32:$BD$32,BA$32,$C$46:$BD$46)</f>
         <v>0</v>
       </c>
       <c r="BB55" s="36">
@@ -54648,7 +54651,7 @@
         <v>55192.500000000022</v>
       </c>
       <c r="BD55" s="36">
-        <f t="shared" ref="BD54:BD55" si="107">BB53*BD$46/SUMIF($C$32:$BD$32,BD$32,$C$46:$BD$46)</f>
+        <f t="shared" ref="BD55" si="107">BB53*BD$46/SUMIF($C$32:$BD$32,BD$32,$C$46:$BD$46)</f>
         <v>0</v>
       </c>
       <c r="BE55" s="77">
@@ -54750,69 +54753,69 @@
       <c r="B58" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="C58" s="124">
+      <c r="C58" s="157">
         <f>SUMIF($C$38:$BD$38,C38,$C$52:$BD$52)</f>
         <v>79887266.200000003</v>
       </c>
-      <c r="D58" s="125"/>
-      <c r="E58" s="125"/>
-      <c r="F58" s="125"/>
-      <c r="G58" s="125"/>
-      <c r="H58" s="125"/>
-      <c r="I58" s="125"/>
-      <c r="J58" s="125"/>
-      <c r="K58" s="125"/>
-      <c r="L58" s="125"/>
-      <c r="M58" s="125"/>
-      <c r="N58" s="125"/>
-      <c r="O58" s="125"/>
-      <c r="P58" s="125"/>
-      <c r="Q58" s="125"/>
-      <c r="R58" s="125"/>
-      <c r="S58" s="125"/>
-      <c r="T58" s="125"/>
-      <c r="U58" s="125"/>
-      <c r="V58" s="125"/>
-      <c r="W58" s="126"/>
-      <c r="X58" s="127">
+      <c r="D58" s="158"/>
+      <c r="E58" s="158"/>
+      <c r="F58" s="158"/>
+      <c r="G58" s="158"/>
+      <c r="H58" s="158"/>
+      <c r="I58" s="158"/>
+      <c r="J58" s="158"/>
+      <c r="K58" s="158"/>
+      <c r="L58" s="158"/>
+      <c r="M58" s="158"/>
+      <c r="N58" s="158"/>
+      <c r="O58" s="158"/>
+      <c r="P58" s="158"/>
+      <c r="Q58" s="158"/>
+      <c r="R58" s="158"/>
+      <c r="S58" s="158"/>
+      <c r="T58" s="158"/>
+      <c r="U58" s="158"/>
+      <c r="V58" s="158"/>
+      <c r="W58" s="159"/>
+      <c r="X58" s="154">
         <f>SUMIF($C$38:$BD$38,X38,$C$52:$BD$52)</f>
         <v>6209389.7570000002</v>
       </c>
-      <c r="Y58" s="128"/>
-      <c r="Z58" s="128"/>
-      <c r="AA58" s="128"/>
-      <c r="AB58" s="128"/>
-      <c r="AC58" s="128"/>
-      <c r="AD58" s="128"/>
-      <c r="AE58" s="128"/>
-      <c r="AF58" s="128"/>
-      <c r="AG58" s="128"/>
-      <c r="AH58" s="128"/>
-      <c r="AI58" s="128"/>
-      <c r="AJ58" s="128"/>
-      <c r="AK58" s="128"/>
-      <c r="AL58" s="128"/>
-      <c r="AM58" s="128"/>
-      <c r="AN58" s="128"/>
-      <c r="AO58" s="128"/>
-      <c r="AP58" s="128"/>
-      <c r="AQ58" s="128"/>
-      <c r="AR58" s="128"/>
-      <c r="AS58" s="128"/>
-      <c r="AT58" s="128"/>
-      <c r="AU58" s="128"/>
-      <c r="AV58" s="128"/>
-      <c r="AW58" s="128"/>
-      <c r="AX58" s="128"/>
-      <c r="AY58" s="128"/>
-      <c r="AZ58" s="128"/>
-      <c r="BA58" s="129"/>
-      <c r="BB58" s="124">
+      <c r="Y58" s="155"/>
+      <c r="Z58" s="155"/>
+      <c r="AA58" s="155"/>
+      <c r="AB58" s="155"/>
+      <c r="AC58" s="155"/>
+      <c r="AD58" s="155"/>
+      <c r="AE58" s="155"/>
+      <c r="AF58" s="155"/>
+      <c r="AG58" s="155"/>
+      <c r="AH58" s="155"/>
+      <c r="AI58" s="155"/>
+      <c r="AJ58" s="155"/>
+      <c r="AK58" s="155"/>
+      <c r="AL58" s="155"/>
+      <c r="AM58" s="155"/>
+      <c r="AN58" s="155"/>
+      <c r="AO58" s="155"/>
+      <c r="AP58" s="155"/>
+      <c r="AQ58" s="155"/>
+      <c r="AR58" s="155"/>
+      <c r="AS58" s="155"/>
+      <c r="AT58" s="155"/>
+      <c r="AU58" s="155"/>
+      <c r="AV58" s="155"/>
+      <c r="AW58" s="155"/>
+      <c r="AX58" s="155"/>
+      <c r="AY58" s="155"/>
+      <c r="AZ58" s="155"/>
+      <c r="BA58" s="156"/>
+      <c r="BB58" s="157">
         <f>SUMIF($C$38:$BD$38,BB38,$C$52:$BD$52)</f>
         <v>4164160.05</v>
       </c>
-      <c r="BC58" s="125"/>
-      <c r="BD58" s="125"/>
+      <c r="BC58" s="158"/>
+      <c r="BD58" s="158"/>
       <c r="BE58" s="84">
         <f>SUM(C58:BD58)</f>
         <v>90260816.006999999</v>
@@ -54825,69 +54828,69 @@
       <c r="B59" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C59" s="124">
+      <c r="C59" s="157">
         <f>SUMIF($C$38:$BD$38,C38,$C$53:$BD$53)</f>
         <v>0</v>
       </c>
-      <c r="D59" s="125"/>
-      <c r="E59" s="125"/>
-      <c r="F59" s="125"/>
-      <c r="G59" s="125"/>
-      <c r="H59" s="125"/>
-      <c r="I59" s="125"/>
-      <c r="J59" s="125"/>
-      <c r="K59" s="125"/>
-      <c r="L59" s="125"/>
-      <c r="M59" s="125"/>
-      <c r="N59" s="125"/>
-      <c r="O59" s="125"/>
-      <c r="P59" s="125"/>
-      <c r="Q59" s="125"/>
-      <c r="R59" s="125"/>
-      <c r="S59" s="125"/>
-      <c r="T59" s="125"/>
-      <c r="U59" s="125"/>
-      <c r="V59" s="125"/>
-      <c r="W59" s="126"/>
-      <c r="X59" s="127">
+      <c r="D59" s="158"/>
+      <c r="E59" s="158"/>
+      <c r="F59" s="158"/>
+      <c r="G59" s="158"/>
+      <c r="H59" s="158"/>
+      <c r="I59" s="158"/>
+      <c r="J59" s="158"/>
+      <c r="K59" s="158"/>
+      <c r="L59" s="158"/>
+      <c r="M59" s="158"/>
+      <c r="N59" s="158"/>
+      <c r="O59" s="158"/>
+      <c r="P59" s="158"/>
+      <c r="Q59" s="158"/>
+      <c r="R59" s="158"/>
+      <c r="S59" s="158"/>
+      <c r="T59" s="158"/>
+      <c r="U59" s="158"/>
+      <c r="V59" s="158"/>
+      <c r="W59" s="159"/>
+      <c r="X59" s="154">
         <f>SUMIF($C$38:$BD$38,X38,$B$53:$BC$53)</f>
         <v>534066.47299999977</v>
       </c>
-      <c r="Y59" s="128"/>
-      <c r="Z59" s="128"/>
-      <c r="AA59" s="128"/>
-      <c r="AB59" s="128"/>
-      <c r="AC59" s="128"/>
-      <c r="AD59" s="128"/>
-      <c r="AE59" s="128"/>
-      <c r="AF59" s="128"/>
-      <c r="AG59" s="128"/>
-      <c r="AH59" s="128"/>
-      <c r="AI59" s="128"/>
-      <c r="AJ59" s="128"/>
-      <c r="AK59" s="128"/>
-      <c r="AL59" s="128"/>
-      <c r="AM59" s="128"/>
-      <c r="AN59" s="128"/>
-      <c r="AO59" s="128"/>
-      <c r="AP59" s="128"/>
-      <c r="AQ59" s="128"/>
-      <c r="AR59" s="128"/>
-      <c r="AS59" s="128"/>
-      <c r="AT59" s="128"/>
-      <c r="AU59" s="128"/>
-      <c r="AV59" s="128"/>
-      <c r="AW59" s="128"/>
-      <c r="AX59" s="128"/>
-      <c r="AY59" s="128"/>
-      <c r="AZ59" s="128"/>
-      <c r="BA59" s="129"/>
-      <c r="BB59" s="124">
+      <c r="Y59" s="155"/>
+      <c r="Z59" s="155"/>
+      <c r="AA59" s="155"/>
+      <c r="AB59" s="155"/>
+      <c r="AC59" s="155"/>
+      <c r="AD59" s="155"/>
+      <c r="AE59" s="155"/>
+      <c r="AF59" s="155"/>
+      <c r="AG59" s="155"/>
+      <c r="AH59" s="155"/>
+      <c r="AI59" s="155"/>
+      <c r="AJ59" s="155"/>
+      <c r="AK59" s="155"/>
+      <c r="AL59" s="155"/>
+      <c r="AM59" s="155"/>
+      <c r="AN59" s="155"/>
+      <c r="AO59" s="155"/>
+      <c r="AP59" s="155"/>
+      <c r="AQ59" s="155"/>
+      <c r="AR59" s="155"/>
+      <c r="AS59" s="155"/>
+      <c r="AT59" s="155"/>
+      <c r="AU59" s="155"/>
+      <c r="AV59" s="155"/>
+      <c r="AW59" s="155"/>
+      <c r="AX59" s="155"/>
+      <c r="AY59" s="155"/>
+      <c r="AZ59" s="155"/>
+      <c r="BA59" s="156"/>
+      <c r="BB59" s="157">
         <f>SUMIF($C$38:$BD$38,BB38,$C$53:$BD$53)</f>
         <v>462684.45000000019</v>
       </c>
-      <c r="BC59" s="125"/>
-      <c r="BD59" s="125"/>
+      <c r="BC59" s="158"/>
+      <c r="BD59" s="158"/>
       <c r="BE59" s="84">
         <f t="shared" ref="BE59:BE63" si="108">SUM(C59:BD59)</f>
         <v>996750.92299999995</v>
@@ -54900,69 +54903,69 @@
       <c r="B60" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C60" s="124">
+      <c r="C60" s="157">
         <f>MIN(MAX(C39-C59,0),C58)</f>
         <v>10000</v>
       </c>
-      <c r="D60" s="125"/>
-      <c r="E60" s="125"/>
-      <c r="F60" s="125"/>
-      <c r="G60" s="125"/>
-      <c r="H60" s="125"/>
-      <c r="I60" s="125"/>
-      <c r="J60" s="125"/>
-      <c r="K60" s="125"/>
-      <c r="L60" s="125"/>
-      <c r="M60" s="125"/>
-      <c r="N60" s="125"/>
-      <c r="O60" s="125"/>
-      <c r="P60" s="125"/>
-      <c r="Q60" s="125"/>
-      <c r="R60" s="125"/>
-      <c r="S60" s="125"/>
-      <c r="T60" s="125"/>
-      <c r="U60" s="125"/>
-      <c r="V60" s="125"/>
-      <c r="W60" s="126"/>
-      <c r="X60" s="127">
+      <c r="D60" s="158"/>
+      <c r="E60" s="158"/>
+      <c r="F60" s="158"/>
+      <c r="G60" s="158"/>
+      <c r="H60" s="158"/>
+      <c r="I60" s="158"/>
+      <c r="J60" s="158"/>
+      <c r="K60" s="158"/>
+      <c r="L60" s="158"/>
+      <c r="M60" s="158"/>
+      <c r="N60" s="158"/>
+      <c r="O60" s="158"/>
+      <c r="P60" s="158"/>
+      <c r="Q60" s="158"/>
+      <c r="R60" s="158"/>
+      <c r="S60" s="158"/>
+      <c r="T60" s="158"/>
+      <c r="U60" s="158"/>
+      <c r="V60" s="158"/>
+      <c r="W60" s="159"/>
+      <c r="X60" s="154">
         <f>MIN(MAX(X39-X59,0),X58)</f>
         <v>65933.527000000235</v>
       </c>
-      <c r="Y60" s="128"/>
-      <c r="Z60" s="128"/>
-      <c r="AA60" s="128"/>
-      <c r="AB60" s="128"/>
-      <c r="AC60" s="128"/>
-      <c r="AD60" s="128"/>
-      <c r="AE60" s="128"/>
-      <c r="AF60" s="128"/>
-      <c r="AG60" s="128"/>
-      <c r="AH60" s="128"/>
-      <c r="AI60" s="128"/>
-      <c r="AJ60" s="128"/>
-      <c r="AK60" s="128"/>
-      <c r="AL60" s="128"/>
-      <c r="AM60" s="128"/>
-      <c r="AN60" s="128"/>
-      <c r="AO60" s="128"/>
-      <c r="AP60" s="128"/>
-      <c r="AQ60" s="128"/>
-      <c r="AR60" s="128"/>
-      <c r="AS60" s="128"/>
-      <c r="AT60" s="128"/>
-      <c r="AU60" s="128"/>
-      <c r="AV60" s="128"/>
-      <c r="AW60" s="128"/>
-      <c r="AX60" s="128"/>
-      <c r="AY60" s="128"/>
-      <c r="AZ60" s="128"/>
-      <c r="BA60" s="129"/>
-      <c r="BB60" s="124">
+      <c r="Y60" s="155"/>
+      <c r="Z60" s="155"/>
+      <c r="AA60" s="155"/>
+      <c r="AB60" s="155"/>
+      <c r="AC60" s="155"/>
+      <c r="AD60" s="155"/>
+      <c r="AE60" s="155"/>
+      <c r="AF60" s="155"/>
+      <c r="AG60" s="155"/>
+      <c r="AH60" s="155"/>
+      <c r="AI60" s="155"/>
+      <c r="AJ60" s="155"/>
+      <c r="AK60" s="155"/>
+      <c r="AL60" s="155"/>
+      <c r="AM60" s="155"/>
+      <c r="AN60" s="155"/>
+      <c r="AO60" s="155"/>
+      <c r="AP60" s="155"/>
+      <c r="AQ60" s="155"/>
+      <c r="AR60" s="155"/>
+      <c r="AS60" s="155"/>
+      <c r="AT60" s="155"/>
+      <c r="AU60" s="155"/>
+      <c r="AV60" s="155"/>
+      <c r="AW60" s="155"/>
+      <c r="AX60" s="155"/>
+      <c r="AY60" s="155"/>
+      <c r="AZ60" s="155"/>
+      <c r="BA60" s="156"/>
+      <c r="BB60" s="157">
         <f>MIN(MAX(BB39-BB59,0),BB58)</f>
         <v>137315.54999999981</v>
       </c>
-      <c r="BC60" s="125"/>
-      <c r="BD60" s="125"/>
+      <c r="BC60" s="158"/>
+      <c r="BD60" s="158"/>
       <c r="BE60" s="84">
         <f t="shared" si="108"/>
         <v>213249.07700000005</v>
@@ -54975,69 +54978,69 @@
       <c r="B61" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C61" s="124">
+      <c r="C61" s="157">
         <f>MAX(C58-C60,0)</f>
         <v>79877266.200000003</v>
       </c>
-      <c r="D61" s="125"/>
-      <c r="E61" s="125"/>
-      <c r="F61" s="125"/>
-      <c r="G61" s="125"/>
-      <c r="H61" s="125"/>
-      <c r="I61" s="125"/>
-      <c r="J61" s="125"/>
-      <c r="K61" s="125"/>
-      <c r="L61" s="125"/>
-      <c r="M61" s="125"/>
-      <c r="N61" s="125"/>
-      <c r="O61" s="125"/>
-      <c r="P61" s="125"/>
-      <c r="Q61" s="125"/>
-      <c r="R61" s="125"/>
-      <c r="S61" s="125"/>
-      <c r="T61" s="125"/>
-      <c r="U61" s="125"/>
-      <c r="V61" s="125"/>
-      <c r="W61" s="126"/>
-      <c r="X61" s="127">
+      <c r="D61" s="158"/>
+      <c r="E61" s="158"/>
+      <c r="F61" s="158"/>
+      <c r="G61" s="158"/>
+      <c r="H61" s="158"/>
+      <c r="I61" s="158"/>
+      <c r="J61" s="158"/>
+      <c r="K61" s="158"/>
+      <c r="L61" s="158"/>
+      <c r="M61" s="158"/>
+      <c r="N61" s="158"/>
+      <c r="O61" s="158"/>
+      <c r="P61" s="158"/>
+      <c r="Q61" s="158"/>
+      <c r="R61" s="158"/>
+      <c r="S61" s="158"/>
+      <c r="T61" s="158"/>
+      <c r="U61" s="158"/>
+      <c r="V61" s="158"/>
+      <c r="W61" s="159"/>
+      <c r="X61" s="154">
         <f>MAX(X58-X60,0)</f>
         <v>6143456.2300000004</v>
       </c>
-      <c r="Y61" s="128"/>
-      <c r="Z61" s="128"/>
-      <c r="AA61" s="128"/>
-      <c r="AB61" s="128"/>
-      <c r="AC61" s="128"/>
-      <c r="AD61" s="128"/>
-      <c r="AE61" s="128"/>
-      <c r="AF61" s="128"/>
-      <c r="AG61" s="128"/>
-      <c r="AH61" s="128"/>
-      <c r="AI61" s="128"/>
-      <c r="AJ61" s="128"/>
-      <c r="AK61" s="128"/>
-      <c r="AL61" s="128"/>
-      <c r="AM61" s="128"/>
-      <c r="AN61" s="128"/>
-      <c r="AO61" s="128"/>
-      <c r="AP61" s="128"/>
-      <c r="AQ61" s="128"/>
-      <c r="AR61" s="128"/>
-      <c r="AS61" s="128"/>
-      <c r="AT61" s="128"/>
-      <c r="AU61" s="128"/>
-      <c r="AV61" s="128"/>
-      <c r="AW61" s="128"/>
-      <c r="AX61" s="128"/>
-      <c r="AY61" s="128"/>
-      <c r="AZ61" s="128"/>
-      <c r="BA61" s="129"/>
-      <c r="BB61" s="124">
+      <c r="Y61" s="155"/>
+      <c r="Z61" s="155"/>
+      <c r="AA61" s="155"/>
+      <c r="AB61" s="155"/>
+      <c r="AC61" s="155"/>
+      <c r="AD61" s="155"/>
+      <c r="AE61" s="155"/>
+      <c r="AF61" s="155"/>
+      <c r="AG61" s="155"/>
+      <c r="AH61" s="155"/>
+      <c r="AI61" s="155"/>
+      <c r="AJ61" s="155"/>
+      <c r="AK61" s="155"/>
+      <c r="AL61" s="155"/>
+      <c r="AM61" s="155"/>
+      <c r="AN61" s="155"/>
+      <c r="AO61" s="155"/>
+      <c r="AP61" s="155"/>
+      <c r="AQ61" s="155"/>
+      <c r="AR61" s="155"/>
+      <c r="AS61" s="155"/>
+      <c r="AT61" s="155"/>
+      <c r="AU61" s="155"/>
+      <c r="AV61" s="155"/>
+      <c r="AW61" s="155"/>
+      <c r="AX61" s="155"/>
+      <c r="AY61" s="155"/>
+      <c r="AZ61" s="155"/>
+      <c r="BA61" s="156"/>
+      <c r="BB61" s="157">
         <f>MAX(BB58-BB60,0)</f>
         <v>4026844.5</v>
       </c>
-      <c r="BC61" s="125"/>
-      <c r="BD61" s="125"/>
+      <c r="BC61" s="158"/>
+      <c r="BD61" s="158"/>
       <c r="BE61" s="84">
         <f t="shared" si="108"/>
         <v>90047566.930000007</v>
@@ -55051,69 +55054,69 @@
       <c r="B62" s="106" t="s">
         <v>90</v>
       </c>
-      <c r="C62" s="130">
+      <c r="C62" s="160">
         <f>MIN(C61,C40)</f>
         <v>79877266.200000003</v>
       </c>
-      <c r="D62" s="131"/>
-      <c r="E62" s="131"/>
-      <c r="F62" s="131"/>
-      <c r="G62" s="131"/>
-      <c r="H62" s="131"/>
-      <c r="I62" s="131"/>
-      <c r="J62" s="131"/>
-      <c r="K62" s="131"/>
-      <c r="L62" s="131"/>
-      <c r="M62" s="131"/>
-      <c r="N62" s="131"/>
-      <c r="O62" s="131"/>
-      <c r="P62" s="131"/>
-      <c r="Q62" s="131"/>
-      <c r="R62" s="131"/>
-      <c r="S62" s="131"/>
-      <c r="T62" s="131"/>
-      <c r="U62" s="131"/>
-      <c r="V62" s="131"/>
-      <c r="W62" s="132"/>
-      <c r="X62" s="133">
+      <c r="D62" s="161"/>
+      <c r="E62" s="161"/>
+      <c r="F62" s="161"/>
+      <c r="G62" s="161"/>
+      <c r="H62" s="161"/>
+      <c r="I62" s="161"/>
+      <c r="J62" s="161"/>
+      <c r="K62" s="161"/>
+      <c r="L62" s="161"/>
+      <c r="M62" s="161"/>
+      <c r="N62" s="161"/>
+      <c r="O62" s="161"/>
+      <c r="P62" s="161"/>
+      <c r="Q62" s="161"/>
+      <c r="R62" s="161"/>
+      <c r="S62" s="161"/>
+      <c r="T62" s="161"/>
+      <c r="U62" s="161"/>
+      <c r="V62" s="161"/>
+      <c r="W62" s="162"/>
+      <c r="X62" s="163">
         <f>MIN(X61,X40)</f>
         <v>6143456.2300000004</v>
       </c>
-      <c r="Y62" s="134"/>
-      <c r="Z62" s="134"/>
-      <c r="AA62" s="134"/>
-      <c r="AB62" s="134"/>
-      <c r="AC62" s="134"/>
-      <c r="AD62" s="134"/>
-      <c r="AE62" s="134"/>
-      <c r="AF62" s="134"/>
-      <c r="AG62" s="134"/>
-      <c r="AH62" s="134"/>
-      <c r="AI62" s="134"/>
-      <c r="AJ62" s="134"/>
-      <c r="AK62" s="134"/>
-      <c r="AL62" s="134"/>
-      <c r="AM62" s="134"/>
-      <c r="AN62" s="134"/>
-      <c r="AO62" s="134"/>
-      <c r="AP62" s="134"/>
-      <c r="AQ62" s="134"/>
-      <c r="AR62" s="134"/>
-      <c r="AS62" s="134"/>
-      <c r="AT62" s="134"/>
-      <c r="AU62" s="134"/>
-      <c r="AV62" s="134"/>
-      <c r="AW62" s="134"/>
-      <c r="AX62" s="134"/>
-      <c r="AY62" s="134"/>
-      <c r="AZ62" s="134"/>
-      <c r="BA62" s="135"/>
-      <c r="BB62" s="130">
+      <c r="Y62" s="164"/>
+      <c r="Z62" s="164"/>
+      <c r="AA62" s="164"/>
+      <c r="AB62" s="164"/>
+      <c r="AC62" s="164"/>
+      <c r="AD62" s="164"/>
+      <c r="AE62" s="164"/>
+      <c r="AF62" s="164"/>
+      <c r="AG62" s="164"/>
+      <c r="AH62" s="164"/>
+      <c r="AI62" s="164"/>
+      <c r="AJ62" s="164"/>
+      <c r="AK62" s="164"/>
+      <c r="AL62" s="164"/>
+      <c r="AM62" s="164"/>
+      <c r="AN62" s="164"/>
+      <c r="AO62" s="164"/>
+      <c r="AP62" s="164"/>
+      <c r="AQ62" s="164"/>
+      <c r="AR62" s="164"/>
+      <c r="AS62" s="164"/>
+      <c r="AT62" s="164"/>
+      <c r="AU62" s="164"/>
+      <c r="AV62" s="164"/>
+      <c r="AW62" s="164"/>
+      <c r="AX62" s="164"/>
+      <c r="AY62" s="164"/>
+      <c r="AZ62" s="164"/>
+      <c r="BA62" s="165"/>
+      <c r="BB62" s="160">
         <f>MIN(BB61,BB40)</f>
         <v>4026844.5</v>
       </c>
-      <c r="BC62" s="131"/>
-      <c r="BD62" s="132"/>
+      <c r="BC62" s="161"/>
+      <c r="BD62" s="162"/>
       <c r="BE62" s="84">
         <f t="shared" si="108"/>
         <v>90047566.930000007</v>
@@ -55209,140 +55212,140 @@
         <v>1225659.3571725877</v>
       </c>
       <c r="X63" s="36">
-        <f t="shared" si="109"/>
-        <v>1617783.1607487705</v>
+        <f>$X62*X$54/SUMIF($C$38:$BD$38,X$38,$C$54:$BD$54)</f>
+        <v>124425.6408676531</v>
       </c>
       <c r="Y63" s="36">
-        <f t="shared" si="109"/>
-        <v>1281431.6654720732</v>
+        <f t="shared" ref="Y63:BA63" si="110">$X62*Y$54/SUMIF($C$38:$BD$38,Y$38,$C$54:$BD$54)</f>
+        <v>98556.444443809523</v>
       </c>
       <c r="Z63" s="36">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AA63" s="36">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AB63" s="36">
-        <f t="shared" si="109"/>
-        <v>2439692.7392396089</v>
+        <f t="shared" si="110"/>
+        <v>187639.69113113367</v>
       </c>
       <c r="AC63" s="36">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AD63" s="36">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AE63" s="36">
-        <f t="shared" si="109"/>
-        <v>98542.986339145355</v>
+        <f t="shared" si="110"/>
+        <v>7579.0591259372304</v>
       </c>
       <c r="AF63" s="36">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AG63" s="36">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AH63" s="36">
-        <f t="shared" si="109"/>
-        <v>32768565.599599164</v>
+        <f t="shared" si="110"/>
+        <v>2520269.6343784132</v>
       </c>
       <c r="AI63" s="36">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AJ63" s="36">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AK63" s="36">
-        <f t="shared" si="109"/>
-        <v>4479.2266517793423</v>
+        <f t="shared" si="110"/>
+        <v>344.50268754260202</v>
       </c>
       <c r="AL63" s="36">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AM63" s="36">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AN63" s="36">
-        <f t="shared" si="109"/>
-        <v>25753695.179099392</v>
+        <f t="shared" si="110"/>
+        <v>1980747.5470856705</v>
       </c>
       <c r="AO63" s="36">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AP63" s="36">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AQ63" s="36">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AR63" s="36">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AS63" s="36">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AT63" s="36">
-        <f t="shared" si="109"/>
-        <v>1041979.7782714705</v>
+        <f t="shared" si="110"/>
+        <v>80139.912955056599</v>
       </c>
       <c r="AU63" s="36">
-        <f t="shared" si="109"/>
-        <v>8877897.2937507406</v>
+        <f t="shared" si="110"/>
+        <v>682809.71587123664</v>
       </c>
       <c r="AV63" s="36">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AW63" s="36">
-        <f t="shared" si="109"/>
-        <v>4207740.492863927</v>
+        <f t="shared" si="110"/>
+        <v>323622.36184177472</v>
       </c>
       <c r="AX63" s="36">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AY63" s="36">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AZ63" s="36">
-        <f t="shared" si="109"/>
-        <v>1785458.0779639243</v>
+        <f t="shared" si="110"/>
+        <v>137321.71961177231</v>
       </c>
       <c r="BA63" s="36">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="BB63" s="36">
-        <f t="shared" si="109"/>
-        <v>70348901.858506575</v>
+        <f>$BB62*BB$54/SUMIF($C$38:$BD$38,BB$38,$C$54:$BD$54)</f>
+        <v>3546492.0371794966</v>
       </c>
       <c r="BC63" s="36">
-        <f t="shared" si="109"/>
-        <v>9528364.3414934315</v>
+        <f t="shared" ref="BC63:BD63" si="111">$BB62*BC$54/SUMIF($C$38:$BD$38,BC$38,$C$54:$BD$54)</f>
+        <v>480352.46282050328</v>
       </c>
       <c r="BD63" s="36">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="BE63" s="84">
         <f t="shared" si="108"/>
-        <v>239631798.60000002</v>
+        <v>90047566.930000022</v>
       </c>
     </row>
     <row r="64" spans="1:58" x14ac:dyDescent="0.3">
@@ -55355,83 +55358,83 @@
         <v>515.85202448697646</v>
       </c>
       <c r="D64" s="36">
-        <f t="shared" ref="D64:W64" si="110">($C60+$C59)*D$46/SUMIF($C$38:$BD$38,D$38,$C$46:$BD$46)</f>
+        <f t="shared" ref="D64:W64" si="112">($C60+$C59)*D$46/SUMIF($C$38:$BD$38,D$38,$C$46:$BD$46)</f>
         <v>923.16209463680468</v>
       </c>
       <c r="E64" s="36">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>698.12517880352766</v>
       </c>
       <c r="F64" s="36">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>1429.9090885651062</v>
       </c>
       <c r="G64" s="36">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>1159.5841541013956</v>
       </c>
       <c r="H64" s="36">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>775.37073111158759</v>
       </c>
       <c r="I64" s="36">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>399.38835708963097</v>
       </c>
       <c r="J64" s="36">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>1361.2011046636619</v>
       </c>
       <c r="K64" s="36">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>411.38966900835072</v>
       </c>
       <c r="L64" s="36">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>55.717152579192913</v>
       </c>
       <c r="M64" s="36">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>95.391598216938377</v>
       </c>
       <c r="N64" s="36">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>49.40993962815066</v>
       </c>
       <c r="O64" s="36">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>742.07349706504294</v>
       </c>
       <c r="P64" s="36">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>200.76737836849401</v>
       </c>
       <c r="Q64" s="36">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>115.60506998548414</v>
       </c>
       <c r="R64" s="36">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>125.7333675038188</v>
       </c>
       <c r="S64" s="36">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>105.26402266598029</v>
       </c>
       <c r="T64" s="36">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>52.187966847712708</v>
       </c>
       <c r="U64" s="36">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>369.8040677226229</v>
       </c>
       <c r="V64" s="36">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>260.62070953680978</v>
       </c>
       <c r="W64" s="36">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>153.44282741271226</v>
       </c>
       <c r="X64" s="36">
@@ -55439,119 +55442,119 @@
         <v>12430.824363784741</v>
       </c>
       <c r="Y64" s="36">
-        <f t="shared" ref="Y64:BA64" si="111">($X59+$X60)*Y$46/SUMIF($C$38:$BD$38,Y$38,$C$46:$BD$46)</f>
+        <f t="shared" ref="Y64:BA64" si="113">($X59+$X60)*Y$46/SUMIF($C$38:$BD$38,Y$38,$C$46:$BD$46)</f>
         <v>9846.3455141311115</v>
       </c>
       <c r="Z64" s="36">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AA64" s="36">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AB64" s="36">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>19098.826418867404</v>
       </c>
       <c r="AC64" s="36">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AD64" s="36">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AE64" s="36">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>2905.9638457829806</v>
       </c>
       <c r="AF64" s="36">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AG64" s="36">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AH64" s="36">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>233657.71886977903</v>
       </c>
       <c r="AI64" s="36">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AJ64" s="36">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AK64" s="36">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>2255.3597860306713</v>
       </c>
       <c r="AL64" s="36">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AM64" s="36">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AN64" s="36">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>186104.6497813481</v>
       </c>
       <c r="AO64" s="36">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AP64" s="36">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AQ64" s="36">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>1314.6611615213226</v>
       </c>
       <c r="AR64" s="36">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AS64" s="36">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AT64" s="36">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>8007.7631051814506</v>
       </c>
       <c r="AU64" s="36">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>68227.906033283463</v>
       </c>
       <c r="AV64" s="36">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AW64" s="36">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>41576.252657014724</v>
       </c>
       <c r="AX64" s="36">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AY64" s="36">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AZ64" s="36">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>14573.72846327498</v>
       </c>
       <c r="BA64" s="36">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="BB64" s="36">
@@ -55559,15 +55562,15 @@
         <v>528427.46282050328</v>
       </c>
       <c r="BC64" s="36">
-        <f t="shared" ref="BC64:BD64" si="112">($BB59+$BB60)*BC$46/SUMIF($C$38:$BD$38,BC$38,$C$46:$BD$46)</f>
+        <f t="shared" ref="BC64:BD64" si="114">($BB59+$BB60)*BC$46/SUMIF($C$38:$BD$38,BC$38,$C$46:$BD$46)</f>
         <v>71572.537179496736</v>
       </c>
       <c r="BD64" s="36">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="BE64" s="84">
-        <f t="shared" ref="BE64" si="113">SUM(C64:BD64)</f>
+        <f t="shared" ref="BE64" si="115">SUM(C64:BD64)</f>
         <v>1210000.0000000002</v>
       </c>
     </row>
@@ -56092,27 +56095,27 @@
         <v>90047566.930000007</v>
       </c>
       <c r="D75" s="28">
-        <f t="shared" ref="D75:I75" si="114">SUM($C$62:$BD$62)</f>
+        <f t="shared" ref="D75:I75" si="116">SUM($C$62:$BD$62)</f>
         <v>90047566.930000007</v>
       </c>
       <c r="E75" s="28">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>90047566.930000007</v>
       </c>
       <c r="F75" s="28">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>90047566.930000007</v>
       </c>
       <c r="G75" s="28">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>90047566.930000007</v>
       </c>
       <c r="H75" s="28">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>90047566.930000007</v>
       </c>
       <c r="I75" s="28">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>90047566.930000007</v>
       </c>
       <c r="BE75" s="79"/>
@@ -56129,27 +56132,27 @@
         <v>1210000</v>
       </c>
       <c r="D76" s="30">
-        <f t="shared" ref="D76:I76" si="115">SUM($C$59:$BD$60)</f>
+        <f t="shared" ref="D76:I76" si="117">SUM($C$59:$BD$60)</f>
         <v>1210000</v>
       </c>
       <c r="E76" s="30">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>1210000</v>
       </c>
       <c r="F76" s="30">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>1210000</v>
       </c>
       <c r="G76" s="30">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>1210000</v>
       </c>
       <c r="H76" s="30">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>1210000</v>
       </c>
       <c r="I76" s="30">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>1210000</v>
       </c>
       <c r="Q76" s="26"/>
@@ -56167,27 +56170,27 @@
         <v>0</v>
       </c>
       <c r="D77" s="48">
-        <f t="shared" ref="D77:I77" si="116">MIN(D75,MAX(D71-D76,0))</f>
+        <f t="shared" ref="D77:I77" si="118">MIN(D75,MAX(D71-D76,0))</f>
         <v>0</v>
       </c>
       <c r="E77" s="48">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="F77" s="48">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="G77" s="48">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="H77" s="48">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="I77" s="48">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="J77" s="48"/>
@@ -56216,27 +56219,27 @@
         <v>90047566.930000007</v>
       </c>
       <c r="D78" s="30">
-        <f t="shared" ref="D78:I78" si="117">MAX(D75-D77,0)</f>
+        <f t="shared" ref="D78:I78" si="119">MAX(D75-D77,0)</f>
         <v>90047566.930000007</v>
       </c>
       <c r="E78" s="30">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>90047566.930000007</v>
       </c>
       <c r="F78" s="30">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>90047566.930000007</v>
       </c>
       <c r="G78" s="30">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>90047566.930000007</v>
       </c>
       <c r="H78" s="30">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>90047566.930000007</v>
       </c>
       <c r="I78" s="30">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>90047566.930000007</v>
       </c>
       <c r="J78" s="30"/>
@@ -56265,27 +56268,27 @@
         <v>855000</v>
       </c>
       <c r="D79" s="30">
-        <f t="shared" ref="D79:I79" si="118">MIN(D68,MAX(D78-D70,0))*D69</f>
+        <f t="shared" ref="D79:I79" si="120">MIN(D68,MAX(D78-D70,0))*D69</f>
         <v>645000</v>
       </c>
       <c r="E79" s="30">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>1800000</v>
       </c>
       <c r="F79" s="30">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>1100000</v>
       </c>
       <c r="G79" s="30">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>4400000</v>
       </c>
       <c r="H79" s="30">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>4004756.6930000009</v>
       </c>
       <c r="I79" s="30">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="J79" s="30"/>
@@ -56387,222 +56390,222 @@
       </c>
       <c r="C83" s="62">
         <f>$C$79*C$63/SUM($C$63:$BD$63)</f>
-        <v>14701.782697878829</v>
+        <v>39123.929170209994</v>
       </c>
       <c r="D83" s="36">
-        <f t="shared" ref="D83:BD83" si="119">$C$79*D$63/SUM($C$63:$BD$63)</f>
-        <v>26310.119697148937</v>
+        <f t="shared" ref="D83:BD83" si="121">$C$79*D$63/SUM($C$63:$BD$63)</f>
+        <v>70015.676373690178</v>
       </c>
       <c r="E83" s="36">
-        <f t="shared" si="119"/>
-        <v>19896.567595900542</v>
+        <f t="shared" si="121"/>
+        <v>52948.129988659137</v>
       </c>
       <c r="F83" s="36">
-        <f t="shared" si="119"/>
-        <v>40752.409024105531</v>
+        <f t="shared" si="121"/>
+        <v>108449.04981520168</v>
       </c>
       <c r="G83" s="36">
-        <f t="shared" si="119"/>
-        <v>33048.148391889772</v>
+        <f t="shared" si="121"/>
+        <v>87946.709828423365</v>
       </c>
       <c r="H83" s="36">
-        <f t="shared" si="119"/>
-        <v>22098.065836680245</v>
+        <f t="shared" si="121"/>
+        <v>58806.688981850763</v>
       </c>
       <c r="I83" s="36">
-        <f t="shared" si="119"/>
-        <v>11382.568177054482</v>
+        <f t="shared" si="121"/>
+        <v>30290.938200196502</v>
       </c>
       <c r="J83" s="36">
-        <f t="shared" si="119"/>
-        <v>38794.231482914358</v>
+        <f t="shared" si="121"/>
+        <v>103238.0083382172</v>
       </c>
       <c r="K83" s="36">
-        <f t="shared" si="119"/>
-        <v>11724.605566737995</v>
+        <f t="shared" si="121"/>
+        <v>31201.157517305037</v>
       </c>
       <c r="L83" s="36">
-        <f t="shared" si="119"/>
-        <v>1587.9388485069978</v>
+        <f t="shared" si="121"/>
+        <v>4225.7737250174559</v>
       </c>
       <c r="M83" s="36">
-        <f t="shared" si="119"/>
-        <v>2718.6605491827436</v>
+        <f t="shared" si="121"/>
+        <v>7234.8153247712016</v>
       </c>
       <c r="N83" s="36">
-        <f t="shared" si="119"/>
-        <v>1408.1832794022937</v>
+        <f t="shared" si="121"/>
+        <v>3747.4137670364471</v>
       </c>
       <c r="O83" s="36">
-        <f t="shared" si="119"/>
-        <v>21149.094666353722</v>
+        <f t="shared" si="121"/>
+        <v>56281.316269208037</v>
       </c>
       <c r="P83" s="36">
-        <f t="shared" si="119"/>
-        <v>5721.8702835020786</v>
+        <f t="shared" si="121"/>
+        <v>15226.86413567815</v>
       </c>
       <c r="Q83" s="36">
-        <f t="shared" si="119"/>
-        <v>3294.7444945862972</v>
+        <f t="shared" si="121"/>
+        <v>8767.8720934116227</v>
       </c>
       <c r="R83" s="36">
-        <f t="shared" si="119"/>
-        <v>3583.4009738588356</v>
+        <f t="shared" si="121"/>
+        <v>9536.0357836020903</v>
       </c>
       <c r="S83" s="36">
-        <f t="shared" si="119"/>
-        <v>3000.024645980438</v>
+        <f t="shared" si="121"/>
+        <v>7983.5727523817568</v>
       </c>
       <c r="T83" s="36">
-        <f t="shared" si="119"/>
-        <v>1487.357055159812</v>
+        <f t="shared" si="121"/>
+        <v>3958.1085690567602</v>
       </c>
       <c r="U83" s="36">
-        <f t="shared" si="119"/>
-        <v>10539.415930094754</v>
+        <f t="shared" si="121"/>
+        <v>28047.167531860126</v>
       </c>
       <c r="V83" s="36">
-        <f t="shared" si="119"/>
-        <v>7427.6902217990782</v>
+        <f t="shared" si="121"/>
+        <v>19766.339369024703</v>
       </c>
       <c r="W83" s="36">
-        <f t="shared" si="119"/>
-        <v>4373.1205812623002</v>
+        <f t="shared" si="121"/>
+        <v>11637.613165019719</v>
       </c>
       <c r="X83" s="36">
-        <f t="shared" si="119"/>
-        <v>5772.2080730574571</v>
+        <f t="shared" si="121"/>
+        <v>1181.4191828696794</v>
       </c>
       <c r="Y83" s="36">
-        <f t="shared" si="119"/>
-        <v>4572.1147209159353</v>
+        <f t="shared" si="121"/>
+        <v>935.79163626889033</v>
       </c>
       <c r="Z83" s="36">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="AA83" s="36">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="AB83" s="36">
-        <f t="shared" si="119"/>
-        <v>8704.7599869321566</v>
+        <f t="shared" si="121"/>
+        <v>1781.6354332131343</v>
       </c>
       <c r="AC83" s="36">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="AD83" s="36">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="AE83" s="36">
-        <f t="shared" si="119"/>
-        <v>351.59880204633777</v>
+        <f t="shared" si="121"/>
+        <v>71.963027693060738</v>
       </c>
       <c r="AF83" s="36">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="AG83" s="36">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="AH83" s="36">
-        <f t="shared" si="119"/>
-        <v>116917.38638753965</v>
+        <f t="shared" si="121"/>
+        <v>23929.914053853743</v>
       </c>
       <c r="AI83" s="36">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="AJ83" s="36">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="AK83" s="36">
-        <f t="shared" si="119"/>
-        <v>15.981763729379015</v>
+        <f t="shared" si="121"/>
+        <v>3.2710467133209482</v>
       </c>
       <c r="AL83" s="36">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="AM83" s="36">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="AN83" s="36">
-        <f t="shared" si="119"/>
-        <v>91888.511903569961</v>
+        <f t="shared" si="121"/>
+        <v>18807.161709041502</v>
       </c>
       <c r="AO83" s="36">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="AP83" s="36">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="AQ83" s="36">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="AR83" s="36">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="AS83" s="36">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="AT83" s="36">
-        <f t="shared" si="119"/>
-        <v>3717.7566400910328</v>
+        <f t="shared" si="121"/>
+        <v>760.92700683226974</v>
       </c>
       <c r="AU83" s="36">
-        <f t="shared" si="119"/>
-        <v>31676.105719288633</v>
+        <f t="shared" si="121"/>
+        <v>6483.2657557947769</v>
       </c>
       <c r="AV83" s="36">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="AW83" s="36">
-        <f t="shared" si="119"/>
-        <v>15013.108203573185</v>
+        <f t="shared" si="121"/>
+        <v>3072.7884029316697</v>
       </c>
       <c r="AX83" s="36">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="AY83" s="36">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="AZ83" s="36">
-        <f t="shared" si="119"/>
-        <v>6370.4677992562338</v>
+        <f t="shared" si="121"/>
+        <v>1303.8672145282503</v>
       </c>
       <c r="BA83" s="36">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="BB83" s="36">
-        <f t="shared" si="119"/>
-        <v>251003.04483973904</v>
+        <f t="shared" si="121"/>
+        <v>33673.876987099946</v>
       </c>
       <c r="BC83" s="36">
-        <f t="shared" si="119"/>
-        <v>33996.95516026095</v>
+        <f t="shared" si="121"/>
+        <v>4560.9378433377979</v>
       </c>
       <c r="BD83" s="36">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="BE83" s="84">
-        <f t="shared" ref="BE83:BE90" si="120">SUM(C83:BD83)</f>
+        <f t="shared" ref="BE83:BE90" si="122">SUM(C83:BD83)</f>
         <v>854999.99999999977</v>
       </c>
     </row>
@@ -56612,223 +56615,223 @@
       </c>
       <c r="C84" s="62">
         <f>$D$79*C$63/SUM($C$63:$BD$63)</f>
-        <v>11090.818526469993</v>
+        <v>29514.543058228592</v>
       </c>
       <c r="D84" s="36">
-        <f t="shared" ref="D84:BD84" si="121">$D$79*D$63/SUM($C$63:$BD$63)</f>
-        <v>19847.985034691304</v>
+        <f t="shared" ref="D84:BD84" si="123">$D$79*D$63/SUM($C$63:$BD$63)</f>
+        <v>52818.843580152243</v>
       </c>
       <c r="E84" s="36">
-        <f t="shared" si="121"/>
-        <v>15009.691344275845</v>
+        <f t="shared" si="123"/>
+        <v>39943.326131795482</v>
       </c>
       <c r="F84" s="36">
-        <f t="shared" si="121"/>
-        <v>30743.045404149783</v>
+        <f t="shared" si="123"/>
+        <v>81812.441088660911</v>
       </c>
       <c r="G84" s="36">
-        <f t="shared" si="121"/>
-        <v>24931.059313180001</v>
+        <f t="shared" si="123"/>
+        <v>66345.763554775534</v>
       </c>
       <c r="H84" s="36">
-        <f t="shared" si="121"/>
-        <v>16670.470718899131</v>
+        <f t="shared" si="123"/>
+        <v>44362.94081086987</v>
       </c>
       <c r="I84" s="36">
-        <f t="shared" si="121"/>
-        <v>8586.8496774270643</v>
+        <f t="shared" si="123"/>
+        <v>22851.058642253502</v>
       </c>
       <c r="J84" s="36">
-        <f t="shared" si="121"/>
-        <v>29265.823750268726</v>
+        <f t="shared" si="123"/>
+        <v>77881.304535848074</v>
       </c>
       <c r="K84" s="36">
-        <f t="shared" si="121"/>
-        <v>8844.8778836795409</v>
+        <f t="shared" si="123"/>
+        <v>23537.71532007222</v>
       </c>
       <c r="L84" s="36">
-        <f t="shared" si="121"/>
-        <v>1197.9187804526475</v>
+        <f t="shared" si="123"/>
+        <v>3187.8643890482563</v>
       </c>
       <c r="M84" s="36">
-        <f t="shared" si="121"/>
-        <v>2050.9193616641746</v>
+        <f t="shared" si="123"/>
+        <v>5457.843139739678</v>
       </c>
       <c r="N84" s="36">
-        <f t="shared" si="121"/>
-        <v>1062.3137020052391</v>
+        <f t="shared" si="123"/>
+        <v>2826.9963505713549</v>
       </c>
       <c r="O84" s="36">
-        <f t="shared" si="121"/>
-        <v>15954.580186898422</v>
+        <f t="shared" si="123"/>
+        <v>42457.83508027975</v>
       </c>
       <c r="P84" s="36">
-        <f t="shared" si="121"/>
-        <v>4316.498634922621</v>
+        <f t="shared" si="123"/>
+        <v>11486.932593581763</v>
       </c>
       <c r="Q84" s="36">
-        <f t="shared" si="121"/>
-        <v>2485.5090046879086</v>
+        <f t="shared" si="123"/>
+        <v>6614.3596494157846</v>
       </c>
       <c r="R84" s="36">
-        <f t="shared" si="121"/>
-        <v>2703.2674013321039</v>
+        <f t="shared" si="123"/>
+        <v>7193.8515560507003</v>
       </c>
       <c r="S84" s="36">
-        <f t="shared" si="121"/>
-        <v>2263.1764873185762</v>
+        <f t="shared" si="123"/>
+        <v>6022.6952342529039</v>
       </c>
       <c r="T84" s="36">
-        <f t="shared" si="121"/>
-        <v>1122.0412872258232</v>
+        <f t="shared" si="123"/>
+        <v>2985.9415520954508</v>
       </c>
       <c r="U84" s="36">
-        <f t="shared" si="121"/>
-        <v>7950.7874560363935</v>
+        <f t="shared" si="123"/>
+        <v>21158.38954157869</v>
       </c>
       <c r="V84" s="36">
-        <f t="shared" si="121"/>
-        <v>5603.3452550414095</v>
+        <f t="shared" si="123"/>
+        <v>14911.4489976853</v>
       </c>
       <c r="W84" s="36">
-        <f t="shared" si="121"/>
-        <v>3299.0207893733141</v>
+        <f t="shared" si="123"/>
+        <v>8779.2520367692614</v>
       </c>
       <c r="X84" s="36">
-        <f t="shared" si="121"/>
-        <v>4354.4727568679064</v>
+        <f t="shared" si="123"/>
+        <v>891.24605023502136</v>
       </c>
       <c r="Y84" s="36">
-        <f t="shared" si="121"/>
-        <v>3449.1391754278106</v>
+        <f t="shared" si="123"/>
+        <v>705.9480764835489</v>
       </c>
       <c r="Z84" s="36">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="AA84" s="36">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="AB84" s="36">
-        <f t="shared" si="121"/>
-        <v>6566.7487620716274</v>
+        <f t="shared" si="123"/>
+        <v>1344.0407654063995</v>
       </c>
       <c r="AC84" s="36">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="AD84" s="36">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="AE84" s="36">
-        <f t="shared" si="121"/>
-        <v>265.24120154372849</v>
+        <f t="shared" si="123"/>
+        <v>54.287898084238797</v>
       </c>
       <c r="AF84" s="36">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="AG84" s="36">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="AH84" s="36">
-        <f t="shared" si="121"/>
-        <v>88200.835344986044</v>
+        <f t="shared" si="123"/>
+        <v>18052.391303784403</v>
       </c>
       <c r="AI84" s="36">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="AJ84" s="36">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="AK84" s="36">
-        <f t="shared" si="121"/>
-        <v>12.056418251987679</v>
+        <f t="shared" si="123"/>
+        <v>2.4676317311017684</v>
       </c>
       <c r="AL84" s="36">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="AM84" s="36">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="AN84" s="36">
-        <f t="shared" si="121"/>
-        <v>69319.403716728208</v>
+        <f t="shared" si="123"/>
+        <v>14187.858833136574</v>
       </c>
       <c r="AO84" s="36">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="AP84" s="36">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="AQ84" s="36">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="AR84" s="36">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="AS84" s="36">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="AT84" s="36">
-        <f t="shared" si="121"/>
-        <v>2804.6234302441126</v>
+        <f t="shared" si="123"/>
+        <v>574.03265427697545</v>
       </c>
       <c r="AU84" s="36">
-        <f t="shared" si="121"/>
-        <v>23896.00957770897</v>
+        <f t="shared" si="123"/>
+        <v>4890.8846929679894</v>
       </c>
       <c r="AV84" s="36">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="AW84" s="36">
-        <f t="shared" si="121"/>
-        <v>11325.678118485033</v>
+        <f t="shared" si="123"/>
+        <v>2318.0684443168734</v>
       </c>
       <c r="AX84" s="36">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="AY84" s="36">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="AZ84" s="36">
-        <f t="shared" si="121"/>
-        <v>4805.7914976845277</v>
+        <f t="shared" si="123"/>
+        <v>983.61912674938185</v>
       </c>
       <c r="BA84" s="36">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="BB84" s="36">
-        <f t="shared" si="121"/>
-        <v>189353.17417734701</v>
+        <f t="shared" si="123"/>
+        <v>25403.100183250834</v>
       </c>
       <c r="BC84" s="36">
-        <f t="shared" si="121"/>
-        <v>25646.825822653002</v>
+        <f t="shared" si="123"/>
+        <v>3440.7074958513213</v>
       </c>
       <c r="BD84" s="36">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="BE84" s="84">
-        <f t="shared" si="120"/>
-        <v>645000</v>
+        <f t="shared" si="122"/>
+        <v>645000.00000000012</v>
       </c>
     </row>
     <row r="85" spans="1:57" x14ac:dyDescent="0.3">
@@ -56837,223 +56840,223 @@
       </c>
       <c r="C85" s="62">
         <f>$E$79*C$63/SUM($C$63:$BD$63)</f>
-        <v>30951.121469218586</v>
+        <v>82366.166674126289</v>
       </c>
       <c r="D85" s="36">
-        <f t="shared" ref="D85:BD85" si="122">$E$79*D$63/SUM($C$63:$BD$63)</f>
-        <v>55389.725678208291</v>
+        <f t="shared" ref="D85:BD85" si="124">$E$79*D$63/SUM($C$63:$BD$63)</f>
+        <v>147401.4239446109</v>
       </c>
       <c r="E85" s="36">
+        <f t="shared" si="124"/>
+        <v>111469.74734454554</v>
+      </c>
+      <c r="F85" s="36">
+        <f t="shared" si="124"/>
+        <v>228313.78908463509</v>
+      </c>
+      <c r="G85" s="36">
+        <f t="shared" si="124"/>
+        <v>185150.96805983866</v>
+      </c>
+      <c r="H85" s="36">
+        <f t="shared" si="124"/>
+        <v>123803.55575126475</v>
+      </c>
+      <c r="I85" s="36">
+        <f t="shared" si="124"/>
+        <v>63770.396210940009</v>
+      </c>
+      <c r="J85" s="36">
+        <f t="shared" si="124"/>
+        <v>217343.17544887835</v>
+      </c>
+      <c r="K85" s="36">
+        <f t="shared" si="124"/>
+        <v>65686.647404852702</v>
+      </c>
+      <c r="L85" s="36">
+        <f t="shared" si="124"/>
+        <v>8896.3657368788536</v>
+      </c>
+      <c r="M85" s="36">
+        <f t="shared" si="124"/>
+        <v>15231.190157413055</v>
+      </c>
+      <c r="N85" s="36">
+        <f t="shared" si="124"/>
+        <v>7889.2921411293619</v>
+      </c>
+      <c r="O85" s="36">
+        <f t="shared" si="124"/>
+        <v>118486.98161938533</v>
+      </c>
+      <c r="P85" s="36">
+        <f t="shared" si="124"/>
+        <v>32056.556075111894</v>
+      </c>
+      <c r="Q85" s="36">
+        <f t="shared" si="124"/>
+        <v>18458.678091392889</v>
+      </c>
+      <c r="R85" s="36">
+        <f t="shared" si="124"/>
+        <v>20075.864807583348</v>
+      </c>
+      <c r="S85" s="36">
+        <f t="shared" si="124"/>
+        <v>16807.521583961596</v>
+      </c>
+      <c r="T85" s="36">
+        <f t="shared" si="124"/>
+        <v>8332.8601453826523</v>
+      </c>
+      <c r="U85" s="36">
+        <f t="shared" si="124"/>
+        <v>59046.668488126583</v>
+      </c>
+      <c r="V85" s="36">
+        <f t="shared" si="124"/>
+        <v>41613.346040052005</v>
+      </c>
+      <c r="W85" s="36">
+        <f t="shared" si="124"/>
+        <v>24500.238242146774</v>
+      </c>
+      <c r="X85" s="36">
+        <f t="shared" si="124"/>
+        <v>2487.198279725641</v>
+      </c>
+      <c r="Y85" s="36">
+        <f t="shared" si="124"/>
+        <v>1970.0876553029273</v>
+      </c>
+      <c r="Z85" s="36">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="AA85" s="36">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="AB85" s="36">
+        <f t="shared" si="124"/>
+        <v>3750.8114383434404</v>
+      </c>
+      <c r="AC85" s="36">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="AD85" s="36">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="AE85" s="36">
+        <f t="shared" si="124"/>
+        <v>151.50111093275947</v>
+      </c>
+      <c r="AF85" s="36">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="AG85" s="36">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="AH85" s="36">
+        <f t="shared" si="124"/>
+        <v>50378.766429165778</v>
+      </c>
+      <c r="AI85" s="36">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="AJ85" s="36">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="AK85" s="36">
+        <f t="shared" si="124"/>
+        <v>6.8864141333072606</v>
+      </c>
+      <c r="AL85" s="36">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="AM85" s="36">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="AN85" s="36">
+        <f t="shared" si="124"/>
+        <v>39594.02465061369</v>
+      </c>
+      <c r="AO85" s="36">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="AP85" s="36">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="AQ85" s="36">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="AR85" s="36">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="AS85" s="36">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="AT85" s="36">
+        <f t="shared" si="124"/>
+        <v>1601.951593331094</v>
+      </c>
+      <c r="AU85" s="36">
+        <f t="shared" si="124"/>
+        <v>13648.980538515318</v>
+      </c>
+      <c r="AV85" s="36">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="AW85" s="36">
+        <f t="shared" si="124"/>
+        <v>6469.0282166982515</v>
+      </c>
+      <c r="AX85" s="36">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="AY85" s="36">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="AZ85" s="36">
+        <f t="shared" si="124"/>
+        <v>2744.9836095331589</v>
+      </c>
+      <c r="BA85" s="36">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BB85" s="36">
+        <f t="shared" si="124"/>
+        <v>70892.372604420932</v>
+      </c>
+      <c r="BC85" s="36">
+        <f t="shared" si="124"/>
+        <v>9601.9744070269426</v>
+      </c>
+      <c r="BD85" s="36">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BE85" s="84">
         <f t="shared" si="122"/>
-        <v>41887.510728211659</v>
-      </c>
-      <c r="F85" s="36">
-        <f t="shared" si="122"/>
-        <v>85794.545313906361</v>
-      </c>
-      <c r="G85" s="36">
-        <f t="shared" si="122"/>
-        <v>69575.049246083727</v>
-      </c>
-      <c r="H85" s="36">
-        <f t="shared" si="122"/>
-        <v>46522.243866695251</v>
-      </c>
-      <c r="I85" s="36">
-        <f t="shared" si="122"/>
-        <v>23963.301425377857</v>
-      </c>
-      <c r="J85" s="36">
-        <f t="shared" si="122"/>
-        <v>81672.066279819701</v>
-      </c>
-      <c r="K85" s="36">
-        <f t="shared" si="122"/>
-        <v>24683.380140501042</v>
-      </c>
-      <c r="L85" s="36">
-        <f t="shared" si="122"/>
-        <v>3343.0291547515744</v>
-      </c>
-      <c r="M85" s="36">
-        <f t="shared" si="122"/>
-        <v>5723.495893016302</v>
-      </c>
-      <c r="N85" s="36">
-        <f t="shared" si="122"/>
-        <v>2964.5963776890389</v>
-      </c>
-      <c r="O85" s="36">
-        <f t="shared" si="122"/>
-        <v>44524.40982390257</v>
-      </c>
-      <c r="P85" s="36">
-        <f t="shared" si="122"/>
-        <v>12046.042702109638</v>
-      </c>
-      <c r="Q85" s="36">
-        <f t="shared" si="122"/>
-        <v>6936.3041991290465</v>
-      </c>
-      <c r="R85" s="36">
-        <f t="shared" si="122"/>
-        <v>7544.0020502291272</v>
-      </c>
-      <c r="S85" s="36">
-        <f t="shared" si="122"/>
-        <v>6315.8413599588175</v>
-      </c>
-      <c r="T85" s="36">
-        <f t="shared" si="122"/>
-        <v>3131.2780108627621</v>
-      </c>
-      <c r="U85" s="36">
-        <f t="shared" si="122"/>
-        <v>22188.244063357379</v>
-      </c>
-      <c r="V85" s="36">
-        <f t="shared" si="122"/>
-        <v>15637.242572208586</v>
-      </c>
-      <c r="W85" s="36">
-        <f t="shared" si="122"/>
-        <v>9206.5696447627361</v>
-      </c>
-      <c r="X85" s="36">
-        <f t="shared" si="122"/>
-        <v>12152.016995910435</v>
-      </c>
-      <c r="Y85" s="36">
-        <f t="shared" si="122"/>
-        <v>9625.5046756124957</v>
-      </c>
-      <c r="Z85" s="36">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="AA85" s="36">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="AB85" s="36">
-        <f t="shared" si="122"/>
-        <v>18325.810498804542</v>
-      </c>
-      <c r="AC85" s="36">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="AD85" s="36">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="AE85" s="36">
-        <f t="shared" si="122"/>
-        <v>740.20800430807947</v>
-      </c>
-      <c r="AF85" s="36">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="AG85" s="36">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="AH85" s="36">
-        <f t="shared" si="122"/>
-        <v>246141.86607903082</v>
-      </c>
-      <c r="AI85" s="36">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="AJ85" s="36">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="AK85" s="36">
-        <f t="shared" si="122"/>
-        <v>33.645818377640033</v>
-      </c>
-      <c r="AL85" s="36">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="AM85" s="36">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="AN85" s="36">
-        <f t="shared" si="122"/>
-        <v>193449.49874435781</v>
-      </c>
-      <c r="AO85" s="36">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="AP85" s="36">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="AQ85" s="36">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="AR85" s="36">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="AS85" s="36">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="AT85" s="36">
-        <f t="shared" si="122"/>
-        <v>7826.8560844021749</v>
-      </c>
-      <c r="AU85" s="36">
-        <f t="shared" si="122"/>
-        <v>66686.538356397126</v>
-      </c>
-      <c r="AV85" s="36">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="AW85" s="36">
-        <f t="shared" si="122"/>
-        <v>31606.543586469863</v>
-      </c>
-      <c r="AX85" s="36">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="AY85" s="36">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="AZ85" s="36">
-        <f t="shared" si="122"/>
-        <v>13411.511156328912</v>
-      </c>
-      <c r="BA85" s="36">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="BB85" s="36">
-        <f t="shared" si="122"/>
-        <v>528427.46282050316</v>
-      </c>
-      <c r="BC85" s="36">
-        <f t="shared" si="122"/>
-        <v>71572.537179496736</v>
-      </c>
-      <c r="BD85" s="36">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="BE85" s="84">
-        <f t="shared" si="120"/>
-        <v>1800000</v>
+        <v>1799999.9999999998</v>
       </c>
     </row>
     <row r="86" spans="1:57" x14ac:dyDescent="0.3">
@@ -57062,222 +57065,222 @@
       </c>
       <c r="C86" s="62">
         <f>$F$79*C$63/SUM($C$63:$BD$63)</f>
-        <v>18914.574231189137</v>
+        <v>50334.879634188292</v>
       </c>
       <c r="D86" s="36">
-        <f t="shared" ref="D86:BD86" si="123">$F$79*D$63/SUM($C$63:$BD$63)</f>
-        <v>33849.276803349509</v>
+        <f t="shared" ref="D86:BD86" si="125">$F$79*D$63/SUM($C$63:$BD$63)</f>
+        <v>90078.647966151111</v>
       </c>
       <c r="E86" s="36">
-        <f t="shared" si="123"/>
-        <v>25597.923222796016</v>
+        <f t="shared" si="125"/>
+        <v>68120.401155000058</v>
       </c>
       <c r="F86" s="36">
-        <f t="shared" si="123"/>
-        <v>52429.9999140539</v>
+        <f t="shared" si="125"/>
+        <v>139525.09332949924</v>
       </c>
       <c r="G86" s="36">
-        <f t="shared" si="123"/>
-        <v>42518.085650384506</v>
+        <f t="shared" si="125"/>
+        <v>113147.81381434586</v>
       </c>
       <c r="H86" s="36">
-        <f t="shared" si="123"/>
-        <v>28430.260140758208</v>
+        <f t="shared" si="125"/>
+        <v>75657.728514661794</v>
       </c>
       <c r="I86" s="36">
-        <f t="shared" si="123"/>
-        <v>14644.239759953134</v>
+        <f t="shared" si="125"/>
+        <v>38970.797684463338</v>
       </c>
       <c r="J86" s="36">
-        <f t="shared" si="123"/>
-        <v>49910.707171000933</v>
+        <f t="shared" si="125"/>
+        <v>132820.82944098121</v>
       </c>
       <c r="K86" s="36">
-        <f t="shared" si="123"/>
-        <v>15084.287863639527</v>
+        <f t="shared" si="125"/>
+        <v>40141.840080743321</v>
       </c>
       <c r="L86" s="36">
-        <f t="shared" si="123"/>
-        <v>2042.9622612370731</v>
+        <f t="shared" si="125"/>
+        <v>5436.6679503148553</v>
       </c>
       <c r="M86" s="36">
-        <f t="shared" si="123"/>
-        <v>3497.6919346210734</v>
+        <f t="shared" si="125"/>
+        <v>9307.9495406413116</v>
       </c>
       <c r="N86" s="36">
-        <f t="shared" si="123"/>
-        <v>1811.6977863655241</v>
+        <f t="shared" si="125"/>
+        <v>4821.2340862457213</v>
       </c>
       <c r="O86" s="36">
-        <f t="shared" si="123"/>
-        <v>27209.361559051569</v>
+        <f t="shared" si="125"/>
+        <v>72408.710989624364</v>
       </c>
       <c r="P86" s="36">
-        <f t="shared" si="123"/>
-        <v>7361.470540178113</v>
+        <f t="shared" si="125"/>
+        <v>19590.11760145727</v>
       </c>
       <c r="Q86" s="36">
-        <f t="shared" si="123"/>
-        <v>4238.8525661344174</v>
+        <f t="shared" si="125"/>
+        <v>11280.303278073432</v>
       </c>
       <c r="R86" s="36">
-        <f t="shared" si="123"/>
-        <v>4610.2234751400229</v>
+        <f t="shared" si="125"/>
+        <v>12268.584049078712</v>
       </c>
       <c r="S86" s="36">
-        <f t="shared" si="123"/>
-        <v>3859.6808310859437</v>
+        <f t="shared" si="125"/>
+        <v>10271.263190198752</v>
       </c>
       <c r="T86" s="36">
-        <f t="shared" si="123"/>
-        <v>1913.5587844161325</v>
+        <f t="shared" si="125"/>
+        <v>5092.3034221782882</v>
       </c>
       <c r="U86" s="36">
-        <f t="shared" si="123"/>
-        <v>13559.482483162841</v>
+        <f t="shared" si="125"/>
+        <v>36084.075187188464</v>
       </c>
       <c r="V86" s="36">
-        <f t="shared" si="123"/>
-        <v>9556.0926830163571</v>
+        <f t="shared" si="125"/>
+        <v>25430.378135587336</v>
       </c>
       <c r="W86" s="36">
-        <f t="shared" si="123"/>
-        <v>5626.2370051327835</v>
+        <f t="shared" si="125"/>
+        <v>14972.367814645251</v>
       </c>
       <c r="X86" s="36">
-        <f t="shared" si="123"/>
-        <v>7426.2326086119328</v>
+        <f t="shared" si="125"/>
+        <v>1519.9545042767807</v>
       </c>
       <c r="Y86" s="36">
-        <f t="shared" si="123"/>
-        <v>5882.2528573187465</v>
+        <f t="shared" si="125"/>
+        <v>1203.9424560184555</v>
       </c>
       <c r="Z86" s="36">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AA86" s="36">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AB86" s="36">
-        <f t="shared" si="123"/>
-        <v>11199.106415936109</v>
+        <f t="shared" si="125"/>
+        <v>2292.1625456543247</v>
       </c>
       <c r="AC86" s="36">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AD86" s="36">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AE86" s="36">
-        <f t="shared" si="123"/>
-        <v>452.34933596604856</v>
+        <f t="shared" si="125"/>
+        <v>92.584012236686334</v>
       </c>
       <c r="AF86" s="36">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AG86" s="36">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AH86" s="36">
-        <f t="shared" si="123"/>
-        <v>150420.02927051883</v>
+        <f t="shared" si="125"/>
+        <v>30787.023928934643</v>
       </c>
       <c r="AI86" s="36">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AJ86" s="36">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AK86" s="36">
-        <f t="shared" si="123"/>
-        <v>20.561333453002241</v>
+        <f t="shared" si="125"/>
+        <v>4.2083641925766591</v>
       </c>
       <c r="AL86" s="36">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AM86" s="36">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AN86" s="36">
-        <f t="shared" si="123"/>
-        <v>118219.13812155199</v>
+        <f t="shared" si="125"/>
+        <v>24196.348397597256</v>
       </c>
       <c r="AO86" s="36">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AP86" s="36">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AQ86" s="36">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AR86" s="36">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AS86" s="36">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AT86" s="36">
-        <f t="shared" si="123"/>
-        <v>4783.0787182457734</v>
+        <f t="shared" si="125"/>
+        <v>978.97041814677971</v>
       </c>
       <c r="AU86" s="36">
-        <f t="shared" si="123"/>
-        <v>40752.884551131574</v>
+        <f t="shared" si="125"/>
+        <v>8341.0436624260292</v>
       </c>
       <c r="AV86" s="36">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AW86" s="36">
-        <f t="shared" si="123"/>
-        <v>19315.109969509358</v>
+        <f t="shared" si="125"/>
+        <v>3953.2950213155982</v>
       </c>
       <c r="AX86" s="36">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AY86" s="36">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AZ86" s="36">
-        <f t="shared" si="123"/>
-        <v>8195.9234844232251</v>
+        <f t="shared" si="125"/>
+        <v>1677.4899836035968</v>
       </c>
       <c r="BA86" s="36">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="BB86" s="36">
-        <f t="shared" si="123"/>
-        <v>322927.89394586312</v>
+        <f t="shared" si="125"/>
+        <v>43323.116591590573</v>
       </c>
       <c r="BC86" s="36">
-        <f t="shared" si="123"/>
-        <v>43738.772720803565</v>
+        <f t="shared" si="125"/>
+        <v>5867.8732487386869</v>
       </c>
       <c r="BD86" s="36">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="BE86" s="84">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>1100000</v>
       </c>
     </row>
@@ -57287,222 +57290,222 @@
       </c>
       <c r="C87" s="62">
         <f>$G$79*C$63/SUM($C$63:$BD$63)</f>
-        <v>75658.296924756549</v>
+        <v>201339.51853675317</v>
       </c>
       <c r="D87" s="36">
-        <f t="shared" ref="D87:BD87" si="124">$G$79*D$63/SUM($C$63:$BD$63)</f>
-        <v>135397.10721339803</v>
+        <f t="shared" ref="D87:BD87" si="126">$G$79*D$63/SUM($C$63:$BD$63)</f>
+        <v>360314.59186460444</v>
       </c>
       <c r="E87" s="36">
-        <f t="shared" si="124"/>
-        <v>102391.69289118407</v>
+        <f t="shared" si="126"/>
+        <v>272481.60462000023</v>
       </c>
       <c r="F87" s="36">
-        <f t="shared" si="124"/>
-        <v>209719.9996562156</v>
+        <f t="shared" si="126"/>
+        <v>558100.37331799697</v>
       </c>
       <c r="G87" s="36">
-        <f t="shared" si="124"/>
-        <v>170072.34260153802</v>
+        <f t="shared" si="126"/>
+        <v>452591.25525738345</v>
       </c>
       <c r="H87" s="36">
-        <f t="shared" si="124"/>
-        <v>113721.04056303283</v>
+        <f t="shared" si="126"/>
+        <v>302630.91405864718</v>
       </c>
       <c r="I87" s="36">
-        <f t="shared" si="124"/>
-        <v>58576.959039812537</v>
+        <f t="shared" si="126"/>
+        <v>155883.19073785335</v>
       </c>
       <c r="J87" s="36">
-        <f t="shared" si="124"/>
-        <v>199642.82868400373</v>
+        <f t="shared" si="126"/>
+        <v>531283.31776392483</v>
       </c>
       <c r="K87" s="36">
-        <f t="shared" si="124"/>
-        <v>60337.151454558109</v>
+        <f t="shared" si="126"/>
+        <v>160567.36032297328</v>
       </c>
       <c r="L87" s="36">
-        <f t="shared" si="124"/>
-        <v>8171.8490449482924</v>
+        <f t="shared" si="126"/>
+        <v>21746.671801259421</v>
       </c>
       <c r="M87" s="36">
-        <f t="shared" si="124"/>
-        <v>13990.767738484294</v>
+        <f t="shared" si="126"/>
+        <v>37231.798162565246</v>
       </c>
       <c r="N87" s="36">
-        <f t="shared" si="124"/>
-        <v>7246.7911454620962</v>
+        <f t="shared" si="126"/>
+        <v>19284.936344982885</v>
       </c>
       <c r="O87" s="36">
-        <f t="shared" si="124"/>
-        <v>108837.44623620628</v>
+        <f t="shared" si="126"/>
+        <v>289634.84395849745</v>
       </c>
       <c r="P87" s="36">
-        <f t="shared" si="124"/>
-        <v>29445.882160712452</v>
+        <f t="shared" si="126"/>
+        <v>78360.470405829081</v>
       </c>
       <c r="Q87" s="36">
-        <f t="shared" si="124"/>
-        <v>16955.41026453767</v>
+        <f t="shared" si="126"/>
+        <v>45121.213112293728</v>
       </c>
       <c r="R87" s="36">
-        <f t="shared" si="124"/>
-        <v>18440.893900560091</v>
+        <f t="shared" si="126"/>
+        <v>49074.336196314849</v>
       </c>
       <c r="S87" s="36">
-        <f t="shared" si="124"/>
-        <v>15438.723324343775</v>
+        <f t="shared" si="126"/>
+        <v>41085.052760795006</v>
       </c>
       <c r="T87" s="36">
-        <f t="shared" si="124"/>
-        <v>7654.2351376645302</v>
+        <f t="shared" si="126"/>
+        <v>20369.213688713153</v>
       </c>
       <c r="U87" s="36">
-        <f t="shared" si="124"/>
-        <v>54237.929932651365</v>
+        <f t="shared" si="126"/>
+        <v>144336.30074875386</v>
       </c>
       <c r="V87" s="36">
-        <f t="shared" si="124"/>
-        <v>38224.370732065428</v>
+        <f t="shared" si="126"/>
+        <v>101721.51254234934</v>
       </c>
       <c r="W87" s="36">
-        <f t="shared" si="124"/>
-        <v>22504.948020531134</v>
+        <f t="shared" si="126"/>
+        <v>59889.471258581005</v>
       </c>
       <c r="X87" s="36">
-        <f t="shared" si="124"/>
-        <v>29704.930434447731</v>
+        <f t="shared" si="126"/>
+        <v>6079.8180171071226</v>
       </c>
       <c r="Y87" s="36">
-        <f t="shared" si="124"/>
-        <v>23529.011429274986</v>
+        <f t="shared" si="126"/>
+        <v>4815.7698240738218</v>
       </c>
       <c r="Z87" s="36">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AA87" s="36">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AB87" s="36">
-        <f t="shared" si="124"/>
-        <v>44796.425663744434</v>
+        <f t="shared" si="126"/>
+        <v>9168.6501826172989</v>
       </c>
       <c r="AC87" s="36">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AD87" s="36">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AE87" s="36">
-        <f t="shared" si="124"/>
-        <v>1809.3973438641942</v>
+        <f t="shared" si="126"/>
+        <v>370.33604894674534</v>
       </c>
       <c r="AF87" s="36">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AG87" s="36">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AH87" s="36">
-        <f t="shared" si="124"/>
-        <v>601680.11708207533</v>
+        <f t="shared" si="126"/>
+        <v>123148.09571573857</v>
       </c>
       <c r="AI87" s="36">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AJ87" s="36">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AK87" s="36">
-        <f t="shared" si="124"/>
-        <v>82.245333812008965</v>
+        <f t="shared" si="126"/>
+        <v>16.833456770306636</v>
       </c>
       <c r="AL87" s="36">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AM87" s="36">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AN87" s="36">
-        <f t="shared" si="124"/>
-        <v>472876.55248620798</v>
+        <f t="shared" si="126"/>
+        <v>96785.393590389023</v>
       </c>
       <c r="AO87" s="36">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AP87" s="36">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AQ87" s="36">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AR87" s="36">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AS87" s="36">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AT87" s="36">
-        <f t="shared" si="124"/>
-        <v>19132.314872983094</v>
+        <f t="shared" si="126"/>
+        <v>3915.8816725871188</v>
       </c>
       <c r="AU87" s="36">
-        <f t="shared" si="124"/>
-        <v>163011.5382045263</v>
+        <f t="shared" si="126"/>
+        <v>33364.174649704117</v>
       </c>
       <c r="AV87" s="36">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AW87" s="36">
-        <f t="shared" si="124"/>
-        <v>77260.439878037432</v>
+        <f t="shared" si="126"/>
+        <v>15813.180085262393</v>
       </c>
       <c r="AX87" s="36">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AY87" s="36">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AZ87" s="36">
-        <f t="shared" si="124"/>
-        <v>32783.6939376929</v>
+        <f t="shared" si="126"/>
+        <v>6709.9599344143871</v>
       </c>
       <c r="BA87" s="36">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="BB87" s="36">
-        <f t="shared" si="124"/>
-        <v>1291711.5757834525</v>
+        <f t="shared" si="126"/>
+        <v>173292.46636636229</v>
       </c>
       <c r="BC87" s="36">
-        <f t="shared" si="124"/>
-        <v>174955.09088321426</v>
+        <f t="shared" si="126"/>
+        <v>23471.492994954748</v>
       </c>
       <c r="BD87" s="36">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="BE87" s="84">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>4400000</v>
       </c>
     </row>
@@ -57512,222 +57515,222 @@
       </c>
       <c r="C88" s="62">
         <f>$H$79*C$63/SUM($C$63:$BD$63)</f>
-        <v>68862.061588727302</v>
+        <v>183253.58736942272</v>
       </c>
       <c r="D88" s="36">
-        <f t="shared" ref="D88:BD88" si="125">$H$79*D$63/SUM($C$63:$BD$63)</f>
-        <v>123234.65257402147</v>
+        <f t="shared" ref="D88:BD88" si="127">$H$79*D$63/SUM($C$63:$BD$63)</f>
+        <v>327948.24394439504</v>
       </c>
       <c r="E88" s="36">
-        <f t="shared" si="125"/>
-        <v>93194.049412174994</v>
+        <f t="shared" si="127"/>
+        <v>248005.12041393769</v>
       </c>
       <c r="F88" s="36">
-        <f t="shared" si="125"/>
-        <v>190881.26642708801</v>
+        <f t="shared" si="127"/>
+        <v>507967.31941160164</v>
       </c>
       <c r="G88" s="36">
-        <f t="shared" si="125"/>
-        <v>154795.08007447692</v>
+        <f t="shared" si="127"/>
+        <v>411935.87697392679</v>
       </c>
       <c r="H88" s="36">
-        <f t="shared" si="125"/>
-        <v>103505.70416584781</v>
+        <f t="shared" si="127"/>
+        <v>275446.17695115349</v>
       </c>
       <c r="I88" s="36">
-        <f t="shared" si="125"/>
-        <v>53315.106538699125</v>
+        <f t="shared" si="127"/>
+        <v>141880.51168945772</v>
       </c>
       <c r="J88" s="36">
-        <f t="shared" si="125"/>
-        <v>181709.30781402648</v>
+        <f t="shared" si="127"/>
+        <v>483559.18697598274</v>
       </c>
       <c r="K88" s="36">
-        <f t="shared" si="125"/>
-        <v>54917.184346408249</v>
+        <f t="shared" si="127"/>
+        <v>146143.91157517501</v>
       </c>
       <c r="L88" s="36">
-        <f t="shared" si="125"/>
-        <v>7437.7879902141685</v>
+        <f t="shared" si="127"/>
+        <v>19793.211237856376</v>
       </c>
       <c r="M88" s="36">
-        <f t="shared" si="125"/>
-        <v>12734.004713841696</v>
+        <f t="shared" si="127"/>
+        <v>33887.339291808705</v>
       </c>
       <c r="N88" s="36">
-        <f t="shared" si="125"/>
-        <v>6595.8262142187441</v>
+        <f t="shared" si="127"/>
+        <v>17552.60861401118</v>
       </c>
       <c r="O88" s="36">
-        <f t="shared" si="125"/>
-        <v>99060.793468971577</v>
+        <f t="shared" si="127"/>
+        <v>263617.51815200085</v>
       </c>
       <c r="P88" s="36">
-        <f t="shared" si="125"/>
-        <v>26800.816741909664</v>
+        <f t="shared" si="127"/>
+        <v>71321.504164630111</v>
       </c>
       <c r="Q88" s="36">
-        <f t="shared" si="125"/>
-        <v>15432.339258970034</v>
+        <f t="shared" si="127"/>
+        <v>41068.063683576751</v>
       </c>
       <c r="R88" s="36">
-        <f t="shared" si="125"/>
-        <v>16784.384834811572</v>
+        <f t="shared" si="127"/>
+        <v>44666.085531073659</v>
       </c>
       <c r="S88" s="36">
-        <f t="shared" si="125"/>
-        <v>14051.893310122945</v>
+        <f t="shared" si="127"/>
+        <v>37394.463642284536</v>
       </c>
       <c r="T88" s="36">
-        <f t="shared" si="125"/>
-        <v>6966.67031758132</v>
+        <f t="shared" si="127"/>
+        <v>18539.487466141189</v>
       </c>
       <c r="U88" s="36">
-        <f t="shared" si="125"/>
-        <v>49365.843843693328</v>
+        <f t="shared" si="127"/>
+        <v>131370.85601509843</v>
       </c>
       <c r="V88" s="36">
-        <f t="shared" si="125"/>
-        <v>34790.75102839827</v>
+        <f t="shared" si="127"/>
+        <v>92584.070040012972</v>
       </c>
       <c r="W88" s="36">
-        <f t="shared" si="125"/>
-        <v>20483.37300246345</v>
+        <f t="shared" si="127"/>
+        <v>54509.718377962148</v>
       </c>
       <c r="X88" s="36">
-        <f t="shared" si="125"/>
-        <v>27036.595221012267</v>
+        <f t="shared" si="127"/>
+        <v>5533.6799764163052</v>
       </c>
       <c r="Y88" s="36">
-        <f t="shared" si="125"/>
-        <v>21415.446818423301</v>
+        <f t="shared" si="127"/>
+        <v>4383.1787352061538</v>
       </c>
       <c r="Z88" s="36">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="AA88" s="36">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="AB88" s="36">
-        <f t="shared" si="125"/>
-        <v>40772.451249853984</v>
+        <f t="shared" si="127"/>
+        <v>8345.0484510482511</v>
       </c>
       <c r="AC88" s="36">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="AD88" s="36">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="AE88" s="36">
-        <f t="shared" si="125"/>
-        <v>1646.8627552583082</v>
+        <f t="shared" si="127"/>
+        <v>337.0694933360578</v>
       </c>
       <c r="AF88" s="36">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="AG88" s="36">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="AH88" s="36">
-        <f t="shared" si="125"/>
-        <v>547632.38089306036</v>
+        <f t="shared" si="127"/>
+        <v>112085.94557904745</v>
       </c>
       <c r="AI88" s="36">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="AJ88" s="36">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="AK88" s="36">
-        <f t="shared" si="125"/>
-        <v>74.857397966286868</v>
+        <f t="shared" si="127"/>
+        <v>15.321340606184474</v>
       </c>
       <c r="AL88" s="36">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="AM88" s="36">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="AN88" s="36">
-        <f t="shared" si="125"/>
-        <v>430398.98602997896</v>
+        <f t="shared" si="127"/>
+        <v>88091.352901306775</v>
       </c>
       <c r="AO88" s="36">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="AP88" s="36">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="AQ88" s="36">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="AR88" s="36">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="AS88" s="36">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="AT88" s="36">
-        <f t="shared" si="125"/>
-        <v>17413.696827309661</v>
+        <f t="shared" si="127"/>
+        <v>3564.1257584748414</v>
       </c>
       <c r="AU88" s="36">
-        <f t="shared" si="125"/>
-        <v>148368.53378654594</v>
+        <f t="shared" si="127"/>
+        <v>30367.136757914432</v>
       </c>
       <c r="AV88" s="36">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="AW88" s="36">
-        <f t="shared" si="125"/>
-        <v>70320.28720583969</v>
+        <f t="shared" si="127"/>
+        <v>14392.713360015658</v>
       </c>
       <c r="AX88" s="36">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="AY88" s="36">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="AZ88" s="36">
-        <f t="shared" si="125"/>
-        <v>29838.799481417998</v>
+        <f t="shared" si="127"/>
+        <v>6107.2174902517881</v>
       </c>
       <c r="BA88" s="36">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="BB88" s="36">
-        <f t="shared" si="125"/>
-        <v>1175679.6769418998</v>
+        <f t="shared" si="127"/>
+        <v>157725.94648344701</v>
       </c>
       <c r="BC88" s="36">
-        <f t="shared" si="125"/>
-        <v>159239.22072476722</v>
+        <f t="shared" si="127"/>
+        <v>21363.095151419926</v>
       </c>
       <c r="BD88" s="36">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="BE88" s="84">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>4004756.6930000009</v>
       </c>
     </row>
@@ -57740,219 +57743,219 @@
         <v>0</v>
       </c>
       <c r="D89" s="36">
-        <f t="shared" ref="D89:BD89" si="126">$I$79*D$63/SUM($C$63:$BD$63)</f>
+        <f t="shared" ref="D89:BD89" si="128">$I$79*D$63/SUM($C$63:$BD$63)</f>
         <v>0</v>
       </c>
       <c r="E89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="F89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="G89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="H89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="I89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="J89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="K89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="L89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="M89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="N89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="O89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="P89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="Q89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="R89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="S89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="T89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="U89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="V89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="W89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="X89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="Y89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="Z89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="AA89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="AB89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="AC89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="AD89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="AE89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="AF89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="AG89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="AH89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="AI89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="AJ89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="AK89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="AL89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="AM89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="AN89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="AO89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="AP89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="AQ89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="AR89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="AS89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="AT89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="AU89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="AV89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="AW89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="AX89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="AY89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="AZ89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="BA89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="BB89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="BC89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="BD89" s="36">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="BE89" s="84">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
     </row>
@@ -57963,223 +57966,223 @@
       <c r="B90" s="60"/>
       <c r="C90" s="88">
         <f>SUM(C83:C89)</f>
-        <v>220178.65543824038</v>
+        <v>585932.62444292905</v>
       </c>
       <c r="D90" s="89">
-        <f t="shared" ref="D90:BD90" si="127">SUM(D83:D89)</f>
-        <v>394028.86700081755</v>
+        <f t="shared" ref="D90:BD90" si="129">SUM(D83:D89)</f>
+        <v>1048577.4276736039</v>
       </c>
       <c r="E90" s="89">
-        <f t="shared" si="127"/>
-        <v>297977.4351945431</v>
+        <f t="shared" si="129"/>
+        <v>792968.32965393818</v>
       </c>
       <c r="F90" s="89">
-        <f t="shared" si="127"/>
-        <v>610321.26573951915</v>
+        <f t="shared" si="129"/>
+        <v>1624168.0660475956</v>
       </c>
       <c r="G90" s="89">
-        <f t="shared" si="127"/>
-        <v>494939.76527755288</v>
+        <f t="shared" si="129"/>
+        <v>1317118.3874886937</v>
       </c>
       <c r="H90" s="89">
-        <f t="shared" si="127"/>
-        <v>330947.78529191349</v>
+        <f t="shared" si="129"/>
+        <v>880708.00506844791</v>
       </c>
       <c r="I90" s="89">
-        <f t="shared" si="127"/>
-        <v>170469.02461832418</v>
+        <f t="shared" si="129"/>
+        <v>453646.89316516439</v>
       </c>
       <c r="J90" s="89">
-        <f t="shared" si="127"/>
-        <v>580994.96518203395</v>
+        <f t="shared" si="129"/>
+        <v>1546125.8225038324</v>
       </c>
       <c r="K90" s="89">
-        <f t="shared" si="127"/>
-        <v>175591.48725552447</v>
+        <f t="shared" si="129"/>
+        <v>467278.63222112157</v>
       </c>
       <c r="L90" s="89">
-        <f t="shared" si="127"/>
-        <v>23781.486080110753</v>
+        <f t="shared" si="129"/>
+        <v>63286.554840375218</v>
       </c>
       <c r="M90" s="89">
-        <f t="shared" si="127"/>
-        <v>40715.540190810279</v>
+        <f t="shared" si="129"/>
+        <v>108350.9356169392</v>
       </c>
       <c r="N90" s="89">
-        <f t="shared" si="127"/>
-        <v>21089.408505142936</v>
+        <f t="shared" si="129"/>
+        <v>56122.481303976951</v>
       </c>
       <c r="O90" s="89">
-        <f t="shared" si="127"/>
-        <v>316735.68594138412</v>
+        <f t="shared" si="129"/>
+        <v>842887.20606899587</v>
       </c>
       <c r="P90" s="89">
-        <f t="shared" si="127"/>
-        <v>85692.581063334568</v>
+        <f t="shared" si="129"/>
+        <v>228042.44497628827</v>
       </c>
       <c r="Q90" s="89">
-        <f t="shared" si="127"/>
-        <v>49343.159788045377</v>
+        <f t="shared" si="129"/>
+        <v>131310.48990816419</v>
       </c>
       <c r="R90" s="89">
-        <f t="shared" si="127"/>
-        <v>53666.172635931754</v>
+        <f t="shared" si="129"/>
+        <v>142814.75792370335</v>
       </c>
       <c r="S90" s="89">
-        <f t="shared" si="127"/>
-        <v>44929.339958810495</v>
+        <f t="shared" si="129"/>
+        <v>119564.56916387455</v>
       </c>
       <c r="T90" s="89">
-        <f t="shared" si="127"/>
-        <v>22275.140592910378</v>
+        <f t="shared" si="129"/>
+        <v>59277.914843567494</v>
       </c>
       <c r="U90" s="89">
-        <f t="shared" si="127"/>
-        <v>157841.70370899606</v>
+        <f t="shared" si="129"/>
+        <v>420043.45751260617</v>
       </c>
       <c r="V90" s="89">
-        <f t="shared" si="127"/>
-        <v>111239.49249252913</v>
+        <f t="shared" si="129"/>
+        <v>296027.09512471163</v>
       </c>
       <c r="W90" s="89">
-        <f t="shared" si="127"/>
-        <v>65493.269043525717</v>
+        <f t="shared" si="129"/>
+        <v>174288.66089512417</v>
       </c>
       <c r="X90" s="89">
-        <f t="shared" si="127"/>
-        <v>86446.456089907733</v>
+        <f t="shared" si="129"/>
+        <v>17693.316010630548</v>
       </c>
       <c r="Y90" s="89">
-        <f t="shared" si="127"/>
-        <v>68473.469676973269</v>
+        <f t="shared" si="129"/>
+        <v>14014.718383353797</v>
       </c>
       <c r="Z90" s="89">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="AA90" s="89">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="AB90" s="89">
-        <f t="shared" si="127"/>
-        <v>130365.30257734285</v>
+        <f t="shared" si="129"/>
+        <v>26682.348816282851</v>
       </c>
       <c r="AC90" s="89">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="AD90" s="89">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="AE90" s="89">
-        <f t="shared" si="127"/>
-        <v>5265.6574429866969</v>
+        <f t="shared" si="129"/>
+        <v>1077.7415912295485</v>
       </c>
       <c r="AF90" s="89">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="AG90" s="89">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="AH90" s="89">
-        <f t="shared" si="127"/>
-        <v>1750992.6150572109</v>
+        <f t="shared" si="129"/>
+        <v>358382.13701052457</v>
       </c>
       <c r="AI90" s="89">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="AJ90" s="89">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="AK90" s="89">
-        <f t="shared" si="127"/>
-        <v>239.3480655903048</v>
+        <f t="shared" si="129"/>
+        <v>48.988254146797743</v>
       </c>
       <c r="AL90" s="89">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="AM90" s="89">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="AN90" s="89">
-        <f t="shared" si="127"/>
-        <v>1376152.0910023949</v>
+        <f t="shared" si="129"/>
+        <v>281662.14008208481</v>
       </c>
       <c r="AO90" s="89">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="AP90" s="89">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="AQ90" s="89">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="AR90" s="89">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="AS90" s="89">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="AT90" s="89">
-        <f t="shared" si="127"/>
-        <v>55678.326573275845</v>
+        <f t="shared" si="129"/>
+        <v>11395.889103649079</v>
       </c>
       <c r="AU90" s="89">
-        <f t="shared" si="127"/>
-        <v>474391.61019559857</v>
+        <f t="shared" si="129"/>
+        <v>97095.486057322662</v>
       </c>
       <c r="AV90" s="89">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="AW90" s="89">
-        <f t="shared" si="127"/>
-        <v>224841.16696191457</v>
+        <f t="shared" si="129"/>
+        <v>46019.073530540445</v>
       </c>
       <c r="AX90" s="89">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="AY90" s="89">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="AZ90" s="89">
-        <f t="shared" si="127"/>
-        <v>95406.187356803799</v>
+        <f t="shared" si="129"/>
+        <v>19527.137359080563</v>
       </c>
       <c r="BA90" s="89">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="BB90" s="89">
-        <f t="shared" si="127"/>
-        <v>3759102.8285088046</v>
+        <f t="shared" si="129"/>
+        <v>504310.87921617157</v>
       </c>
       <c r="BC90" s="89">
-        <f t="shared" si="127"/>
-        <v>509149.40249119571</v>
+        <f t="shared" si="129"/>
+        <v>68306.081141329429</v>
       </c>
       <c r="BD90" s="89">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="BE90" s="90">
-        <f t="shared" si="120"/>
-        <v>12804756.692999998</v>
+        <f t="shared" si="122"/>
+        <v>12804756.693</v>
       </c>
     </row>
     <row r="91" spans="1:57" x14ac:dyDescent="0.3">
@@ -58206,7 +58209,7 @@
     <row r="92" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A92" s="86">
         <f>SUM(C90:BD90)</f>
-        <v>12804756.692999998</v>
+        <v>12804756.693</v>
       </c>
       <c r="C92" s="30"/>
       <c r="D92" s="30"/>
@@ -58249,177 +58252,400 @@
       <c r="AB93" s="30"/>
       <c r="AC93" s="30"/>
     </row>
-    <row r="94" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="C94" s="30"/>
-      <c r="D94" s="30"/>
-      <c r="E94" s="30"/>
-      <c r="F94" s="30"/>
-      <c r="G94" s="30"/>
-      <c r="H94" s="30"/>
-      <c r="I94" s="30"/>
-      <c r="J94" s="30"/>
-      <c r="K94" s="30"/>
-      <c r="L94" s="30"/>
-      <c r="M94" s="30"/>
-      <c r="N94" s="30"/>
-      <c r="O94" s="30"/>
-      <c r="Q94" s="30"/>
-      <c r="X94" s="30"/>
-      <c r="Y94" s="30"/>
-      <c r="Z94" s="30"/>
-      <c r="AA94" s="30"/>
-      <c r="AB94" s="30"/>
-      <c r="AC94" s="30"/>
+    <row r="94" spans="1:57" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C94" s="124"/>
+      <c r="D94" s="124"/>
+      <c r="E94" s="124"/>
+      <c r="F94" s="124"/>
+      <c r="G94" s="124"/>
+      <c r="H94" s="124"/>
+      <c r="I94" s="124"/>
+      <c r="J94" s="124"/>
+      <c r="K94" s="124"/>
+      <c r="L94" s="124"/>
+      <c r="M94" s="124"/>
+      <c r="N94" s="124"/>
+      <c r="O94" s="124"/>
+      <c r="P94" s="124"/>
+      <c r="Q94" s="124"/>
+      <c r="R94" s="124"/>
+      <c r="S94" s="124"/>
+      <c r="T94" s="124"/>
+      <c r="U94" s="124"/>
+      <c r="V94" s="124"/>
+      <c r="W94" s="124"/>
+      <c r="X94" s="124"/>
+      <c r="Y94" s="124"/>
+      <c r="Z94" s="124"/>
+      <c r="AA94" s="124"/>
+      <c r="AB94" s="124"/>
+      <c r="AC94" s="124"/>
+      <c r="AD94" s="124"/>
+      <c r="AE94" s="124"/>
+      <c r="AF94" s="124"/>
+      <c r="AG94" s="124"/>
+      <c r="AH94" s="124"/>
+      <c r="AI94" s="124"/>
+      <c r="AJ94" s="124"/>
+      <c r="AK94" s="124"/>
+      <c r="AL94" s="124"/>
+      <c r="AM94" s="124"/>
+      <c r="AN94" s="124"/>
+      <c r="AO94" s="124"/>
+      <c r="AP94" s="124"/>
+      <c r="AQ94" s="124"/>
+      <c r="AR94" s="124"/>
+      <c r="AS94" s="124"/>
+      <c r="AT94" s="124"/>
+      <c r="AU94" s="124"/>
+      <c r="AV94" s="124"/>
+      <c r="AW94" s="124"/>
+      <c r="AX94" s="124"/>
+      <c r="AY94" s="124"/>
+      <c r="AZ94" s="124"/>
+      <c r="BA94" s="124"/>
+      <c r="BB94" s="124"/>
+      <c r="BC94" s="124"/>
+      <c r="BD94" s="124"/>
     </row>
-    <row r="95" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="C95" s="37"/>
-      <c r="D95" s="37"/>
-      <c r="E95" s="37"/>
-      <c r="F95" s="37"/>
-      <c r="G95" s="37"/>
-      <c r="H95" s="37"/>
-      <c r="I95" s="37"/>
-      <c r="J95" s="37"/>
-      <c r="K95" s="37"/>
-      <c r="L95" s="37"/>
-      <c r="M95" s="37"/>
-      <c r="N95" s="37"/>
-      <c r="O95" s="37"/>
-      <c r="Q95" s="30"/>
-      <c r="X95" s="37"/>
-      <c r="Y95" s="37"/>
-      <c r="Z95" s="37"/>
-      <c r="AA95" s="37"/>
-      <c r="AB95" s="37"/>
-      <c r="AC95" s="37"/>
+    <row r="95" spans="1:57" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C95" s="124"/>
+      <c r="D95" s="124"/>
+      <c r="E95" s="124"/>
+      <c r="F95" s="124"/>
+      <c r="G95" s="124"/>
+      <c r="H95" s="124"/>
+      <c r="I95" s="124"/>
+      <c r="J95" s="124"/>
+      <c r="K95" s="124"/>
+      <c r="L95" s="124"/>
+      <c r="M95" s="124"/>
+      <c r="N95" s="124"/>
+      <c r="O95" s="124"/>
+      <c r="P95" s="124"/>
+      <c r="Q95" s="124"/>
+      <c r="R95" s="124"/>
+      <c r="S95" s="124"/>
+      <c r="T95" s="124"/>
+      <c r="U95" s="124"/>
+      <c r="V95" s="124"/>
+      <c r="W95" s="124"/>
+      <c r="X95" s="124"/>
+      <c r="Y95" s="124"/>
+      <c r="Z95" s="124"/>
+      <c r="AA95" s="124"/>
+      <c r="AB95" s="124"/>
+      <c r="AC95" s="124"/>
+      <c r="AD95" s="124"/>
+      <c r="AE95" s="124"/>
+      <c r="AF95" s="124"/>
+      <c r="AG95" s="124"/>
+      <c r="AH95" s="124"/>
+      <c r="AI95" s="124"/>
+      <c r="AJ95" s="124"/>
+      <c r="AK95" s="124"/>
+      <c r="AL95" s="124"/>
+      <c r="AM95" s="124"/>
+      <c r="AN95" s="124"/>
+      <c r="AO95" s="124"/>
+      <c r="AP95" s="124"/>
+      <c r="AQ95" s="124"/>
+      <c r="AR95" s="124"/>
+      <c r="AS95" s="124"/>
+      <c r="AT95" s="124"/>
+      <c r="AU95" s="124"/>
+      <c r="AV95" s="124"/>
+      <c r="AW95" s="124"/>
+      <c r="AX95" s="124"/>
+      <c r="AY95" s="124"/>
+      <c r="AZ95" s="124"/>
+      <c r="BA95" s="124"/>
+      <c r="BB95" s="124"/>
+      <c r="BC95" s="124"/>
+      <c r="BD95" s="124"/>
     </row>
-    <row r="96" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="C96" s="37"/>
-      <c r="D96" s="37"/>
-      <c r="E96" s="37"/>
-      <c r="F96" s="37"/>
-      <c r="G96" s="37"/>
-      <c r="H96" s="37"/>
-      <c r="I96" s="37"/>
-      <c r="J96" s="37"/>
-      <c r="K96" s="37"/>
-      <c r="L96" s="37"/>
-      <c r="M96" s="37"/>
-      <c r="N96" s="37"/>
-      <c r="O96" s="37"/>
-      <c r="X96" s="37"/>
-      <c r="Y96" s="37"/>
-      <c r="Z96" s="37"/>
-      <c r="AA96" s="37"/>
-      <c r="AB96" s="37"/>
-      <c r="AC96" s="37"/>
+    <row r="96" spans="1:57" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C96" s="124"/>
+      <c r="D96" s="124"/>
+      <c r="E96" s="124"/>
+      <c r="F96" s="124"/>
+      <c r="G96" s="124"/>
+      <c r="H96" s="124"/>
+      <c r="I96" s="124"/>
+      <c r="J96" s="124"/>
+      <c r="K96" s="124"/>
+      <c r="L96" s="124"/>
+      <c r="M96" s="124"/>
+      <c r="N96" s="124"/>
+      <c r="O96" s="124"/>
+      <c r="P96" s="124"/>
+      <c r="Q96" s="124"/>
+      <c r="R96" s="124"/>
+      <c r="S96" s="124"/>
+      <c r="T96" s="124"/>
+      <c r="U96" s="124"/>
+      <c r="V96" s="124"/>
+      <c r="W96" s="124"/>
+      <c r="X96" s="124"/>
+      <c r="Y96" s="124"/>
+      <c r="Z96" s="124"/>
+      <c r="AA96" s="124"/>
+      <c r="AB96" s="124"/>
+      <c r="AC96" s="124"/>
+      <c r="AD96" s="124"/>
+      <c r="AE96" s="124"/>
+      <c r="AF96" s="124"/>
+      <c r="AG96" s="124"/>
+      <c r="AH96" s="124"/>
+      <c r="AI96" s="124"/>
+      <c r="AJ96" s="124"/>
+      <c r="AK96" s="124"/>
+      <c r="AL96" s="124"/>
+      <c r="AM96" s="124"/>
+      <c r="AN96" s="124"/>
+      <c r="AO96" s="124"/>
+      <c r="AP96" s="124"/>
+      <c r="AQ96" s="124"/>
+      <c r="AR96" s="124"/>
+      <c r="AS96" s="124"/>
+      <c r="AT96" s="124"/>
+      <c r="AU96" s="124"/>
+      <c r="AV96" s="124"/>
+      <c r="AW96" s="124"/>
+      <c r="AX96" s="124"/>
+      <c r="AY96" s="124"/>
+      <c r="AZ96" s="124"/>
+      <c r="BA96" s="124"/>
+      <c r="BB96" s="124"/>
+      <c r="BC96" s="124"/>
+      <c r="BD96" s="124"/>
     </row>
-    <row r="97" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="26"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
+      <c r="C97" s="124"/>
+      <c r="D97" s="124"/>
+      <c r="E97" s="124"/>
+      <c r="F97" s="124"/>
+      <c r="G97" s="124"/>
+      <c r="H97" s="124"/>
+      <c r="I97" s="124"/>
+      <c r="J97" s="124"/>
+      <c r="K97" s="124"/>
+      <c r="L97" s="124"/>
+      <c r="M97" s="124"/>
+      <c r="N97" s="124"/>
+      <c r="O97" s="124"/>
+      <c r="P97" s="124"/>
+      <c r="Q97" s="124"/>
+      <c r="R97" s="124"/>
+      <c r="S97" s="124"/>
+      <c r="T97" s="124"/>
+      <c r="U97" s="124"/>
+      <c r="V97" s="124"/>
+      <c r="W97" s="124"/>
+      <c r="X97" s="124"/>
+      <c r="Y97" s="124"/>
+      <c r="Z97" s="124"/>
+      <c r="AA97" s="124"/>
+      <c r="AB97" s="124"/>
+      <c r="AC97" s="124"/>
+      <c r="AD97" s="124"/>
+      <c r="AE97" s="124"/>
+      <c r="AF97" s="124"/>
+      <c r="AG97" s="124"/>
+      <c r="AH97" s="124"/>
+      <c r="AI97" s="124"/>
+      <c r="AJ97" s="124"/>
+      <c r="AK97" s="124"/>
+      <c r="AL97" s="124"/>
+      <c r="AM97" s="124"/>
+      <c r="AN97" s="124"/>
+      <c r="AO97" s="124"/>
+      <c r="AP97" s="124"/>
+      <c r="AQ97" s="124"/>
+      <c r="AR97" s="124"/>
+      <c r="AS97" s="124"/>
+      <c r="AT97" s="124"/>
+      <c r="AU97" s="124"/>
+      <c r="AV97" s="124"/>
+      <c r="AW97" s="124"/>
+      <c r="AX97" s="124"/>
+      <c r="AY97" s="124"/>
+      <c r="AZ97" s="124"/>
+      <c r="BA97" s="124"/>
+      <c r="BB97" s="124"/>
+      <c r="BC97" s="124"/>
+      <c r="BD97" s="124"/>
     </row>
-    <row r="98" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="30"/>
-      <c r="F98" s="30"/>
-      <c r="G98" s="30"/>
-      <c r="H98" s="30"/>
-      <c r="I98" s="30"/>
-      <c r="J98" s="30"/>
-      <c r="K98" s="30"/>
-      <c r="L98" s="30"/>
-      <c r="M98" s="30"/>
-      <c r="N98" s="30"/>
-      <c r="O98" s="30"/>
-      <c r="X98" s="30"/>
-      <c r="Y98" s="30"/>
-      <c r="Z98" s="30"/>
-      <c r="AA98" s="30"/>
-      <c r="AB98" s="30"/>
-      <c r="AC98" s="30"/>
+    <row r="98" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C98" s="124"/>
+      <c r="D98" s="124"/>
+      <c r="E98" s="124"/>
+      <c r="F98" s="124"/>
+      <c r="G98" s="124"/>
+      <c r="H98" s="124"/>
+      <c r="I98" s="124"/>
+      <c r="J98" s="124"/>
+      <c r="K98" s="124"/>
+      <c r="L98" s="124"/>
+      <c r="M98" s="124"/>
+      <c r="N98" s="124"/>
+      <c r="O98" s="124"/>
+      <c r="P98" s="124"/>
+      <c r="Q98" s="124"/>
+      <c r="R98" s="124"/>
+      <c r="S98" s="124"/>
+      <c r="T98" s="124"/>
+      <c r="U98" s="124"/>
+      <c r="V98" s="124"/>
+      <c r="W98" s="124"/>
+      <c r="X98" s="124"/>
+      <c r="Y98" s="124"/>
+      <c r="Z98" s="124"/>
+      <c r="AA98" s="124"/>
+      <c r="AB98" s="124"/>
+      <c r="AC98" s="124"/>
+      <c r="AD98" s="124"/>
+      <c r="AE98" s="124"/>
+      <c r="AF98" s="124"/>
+      <c r="AG98" s="124"/>
+      <c r="AH98" s="124"/>
+      <c r="AI98" s="124"/>
+      <c r="AJ98" s="124"/>
+      <c r="AK98" s="124"/>
+      <c r="AL98" s="124"/>
+      <c r="AM98" s="124"/>
+      <c r="AN98" s="124"/>
+      <c r="AO98" s="124"/>
+      <c r="AP98" s="124"/>
+      <c r="AQ98" s="124"/>
+      <c r="AR98" s="124"/>
+      <c r="AS98" s="124"/>
+      <c r="AT98" s="124"/>
+      <c r="AU98" s="124"/>
+      <c r="AV98" s="124"/>
+      <c r="AW98" s="124"/>
+      <c r="AX98" s="124"/>
+      <c r="AY98" s="124"/>
+      <c r="AZ98" s="124"/>
+      <c r="BA98" s="124"/>
+      <c r="BB98" s="124"/>
+      <c r="BC98" s="124"/>
+      <c r="BD98" s="124"/>
     </row>
-    <row r="99" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="C99" s="30"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="30"/>
-      <c r="F99" s="30"/>
-      <c r="G99" s="30"/>
-      <c r="H99" s="30"/>
-      <c r="I99" s="30"/>
-      <c r="J99" s="30"/>
-      <c r="K99" s="30"/>
-      <c r="L99" s="30"/>
-      <c r="M99" s="30"/>
-      <c r="N99" s="30"/>
-      <c r="O99" s="30"/>
-      <c r="X99" s="30"/>
-      <c r="Y99" s="30"/>
-      <c r="Z99" s="30"/>
-      <c r="AA99" s="30"/>
-      <c r="AB99" s="30"/>
-      <c r="AC99" s="30"/>
+    <row r="99" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C99" s="124"/>
+      <c r="D99" s="124"/>
+      <c r="E99" s="124"/>
+      <c r="F99" s="124"/>
+      <c r="G99" s="124"/>
+      <c r="H99" s="124"/>
+      <c r="I99" s="124"/>
+      <c r="J99" s="124"/>
+      <c r="K99" s="124"/>
+      <c r="L99" s="124"/>
+      <c r="M99" s="124"/>
+      <c r="N99" s="124"/>
+      <c r="O99" s="124"/>
+      <c r="P99" s="124"/>
+      <c r="Q99" s="124"/>
+      <c r="R99" s="124"/>
+      <c r="S99" s="124"/>
+      <c r="T99" s="124"/>
+      <c r="U99" s="124"/>
+      <c r="V99" s="124"/>
+      <c r="W99" s="124"/>
+      <c r="X99" s="124"/>
+      <c r="Y99" s="124"/>
+      <c r="Z99" s="124"/>
+      <c r="AA99" s="124"/>
+      <c r="AB99" s="124"/>
+      <c r="AC99" s="124"/>
+      <c r="AD99" s="124"/>
+      <c r="AE99" s="124"/>
+      <c r="AF99" s="124"/>
+      <c r="AG99" s="124"/>
+      <c r="AH99" s="124"/>
+      <c r="AI99" s="124"/>
+      <c r="AJ99" s="124"/>
+      <c r="AK99" s="124"/>
+      <c r="AL99" s="124"/>
+      <c r="AM99" s="124"/>
+      <c r="AN99" s="124"/>
+      <c r="AO99" s="124"/>
+      <c r="AP99" s="124"/>
+      <c r="AQ99" s="124"/>
+      <c r="AR99" s="124"/>
+      <c r="AS99" s="124"/>
+      <c r="AT99" s="124"/>
+      <c r="AU99" s="124"/>
+      <c r="AV99" s="124"/>
+      <c r="AW99" s="124"/>
+      <c r="AX99" s="124"/>
+      <c r="AY99" s="124"/>
+      <c r="AZ99" s="124"/>
+      <c r="BA99" s="124"/>
+      <c r="BB99" s="124"/>
+      <c r="BC99" s="124"/>
+      <c r="BD99" s="124"/>
     </row>
-    <row r="100" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="C100" s="30"/>
-      <c r="D100" s="30"/>
-      <c r="E100" s="30"/>
-      <c r="F100" s="30"/>
-      <c r="G100" s="30"/>
-      <c r="H100" s="30"/>
-      <c r="I100" s="30"/>
-      <c r="J100" s="30"/>
-      <c r="K100" s="30"/>
-      <c r="L100" s="30"/>
-      <c r="M100" s="30"/>
-      <c r="N100" s="30"/>
-      <c r="O100" s="30"/>
-      <c r="P100" s="30"/>
-      <c r="Q100" s="30"/>
-      <c r="R100" s="30"/>
-      <c r="S100" s="30"/>
-      <c r="T100" s="30"/>
-      <c r="U100" s="30"/>
-      <c r="V100" s="30"/>
-      <c r="W100" s="30"/>
-      <c r="X100" s="30"/>
-      <c r="Y100" s="30"/>
-      <c r="Z100" s="30"/>
-      <c r="AA100" s="30"/>
-      <c r="AB100" s="30"/>
-      <c r="AC100" s="30"/>
-      <c r="AD100" s="30"/>
-      <c r="AE100" s="30"/>
-      <c r="AF100" s="30"/>
-      <c r="AG100" s="30"/>
-      <c r="AH100" s="30"/>
-      <c r="AI100" s="30"/>
-      <c r="AJ100" s="30"/>
-      <c r="AK100" s="30"/>
-      <c r="AL100" s="30"/>
-      <c r="AM100" s="30"/>
-      <c r="AN100" s="30"/>
-      <c r="AO100" s="30"/>
-      <c r="AP100" s="30"/>
-      <c r="AQ100" s="30"/>
-      <c r="AR100" s="30"/>
-      <c r="AS100" s="30"/>
-      <c r="AT100" s="30"/>
-      <c r="AU100" s="30"/>
-      <c r="AV100" s="30"/>
-      <c r="AW100" s="30"/>
-      <c r="AX100" s="30"/>
-      <c r="AY100" s="30"/>
-      <c r="AZ100" s="30"/>
-      <c r="BA100" s="30"/>
-      <c r="BB100" s="30"/>
-      <c r="BC100" s="30"/>
-      <c r="BD100" s="30"/>
+    <row r="100" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C100" s="124"/>
+      <c r="D100" s="124"/>
+      <c r="E100" s="124"/>
+      <c r="F100" s="124"/>
+      <c r="G100" s="124"/>
+      <c r="H100" s="124"/>
+      <c r="I100" s="124"/>
+      <c r="J100" s="124"/>
+      <c r="K100" s="124"/>
+      <c r="L100" s="124"/>
+      <c r="M100" s="124"/>
+      <c r="N100" s="124"/>
+      <c r="O100" s="124"/>
+      <c r="P100" s="124"/>
+      <c r="Q100" s="124"/>
+      <c r="R100" s="124"/>
+      <c r="S100" s="124"/>
+      <c r="T100" s="124"/>
+      <c r="U100" s="124"/>
+      <c r="V100" s="124"/>
+      <c r="W100" s="124"/>
+      <c r="X100" s="124"/>
+      <c r="Y100" s="124"/>
+      <c r="Z100" s="124"/>
+      <c r="AA100" s="124"/>
+      <c r="AB100" s="124"/>
+      <c r="AC100" s="124"/>
+      <c r="AD100" s="124"/>
+      <c r="AE100" s="124"/>
+      <c r="AF100" s="124"/>
+      <c r="AG100" s="124"/>
+      <c r="AH100" s="124"/>
+      <c r="AI100" s="124"/>
+      <c r="AJ100" s="124"/>
+      <c r="AK100" s="124"/>
+      <c r="AL100" s="124"/>
+      <c r="AM100" s="124"/>
+      <c r="AN100" s="124"/>
+      <c r="AO100" s="124"/>
+      <c r="AP100" s="124"/>
+      <c r="AQ100" s="124"/>
+      <c r="AR100" s="124"/>
+      <c r="AS100" s="124"/>
+      <c r="AT100" s="124"/>
+      <c r="AU100" s="124"/>
+      <c r="AV100" s="124"/>
+      <c r="AW100" s="124"/>
+      <c r="AX100" s="124"/>
+      <c r="AY100" s="124"/>
+      <c r="AZ100" s="124"/>
+      <c r="BA100" s="124"/>
+      <c r="BB100" s="124"/>
+      <c r="BC100" s="124"/>
+      <c r="BD100" s="124"/>
     </row>
-    <row r="101" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C101" s="30"/>
       <c r="D101" s="30"/>
       <c r="E101" s="30"/>
@@ -58441,7 +58667,7 @@
       <c r="AB101" s="30"/>
       <c r="AC101" s="30"/>
     </row>
-    <row r="102" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C102" s="37"/>
       <c r="D102" s="37"/>
       <c r="E102" s="37"/>
@@ -58455,15 +58681,49 @@
       <c r="M102" s="37"/>
       <c r="N102" s="37"/>
       <c r="O102" s="37"/>
-      <c r="Q102" s="30"/>
+      <c r="P102" s="37"/>
+      <c r="Q102" s="37"/>
+      <c r="R102" s="37"/>
+      <c r="S102" s="37"/>
+      <c r="T102" s="37"/>
+      <c r="U102" s="37"/>
+      <c r="V102" s="37"/>
+      <c r="W102" s="37"/>
       <c r="X102" s="37"/>
       <c r="Y102" s="37"/>
       <c r="Z102" s="37"/>
       <c r="AA102" s="37"/>
       <c r="AB102" s="37"/>
       <c r="AC102" s="37"/>
+      <c r="AD102" s="37"/>
+      <c r="AE102" s="37"/>
+      <c r="AF102" s="37"/>
+      <c r="AG102" s="37"/>
+      <c r="AH102" s="37"/>
+      <c r="AI102" s="37"/>
+      <c r="AJ102" s="37"/>
+      <c r="AK102" s="37"/>
+      <c r="AL102" s="37"/>
+      <c r="AM102" s="37"/>
+      <c r="AN102" s="37"/>
+      <c r="AO102" s="37"/>
+      <c r="AP102" s="37"/>
+      <c r="AQ102" s="37"/>
+      <c r="AR102" s="37"/>
+      <c r="AS102" s="37"/>
+      <c r="AT102" s="37"/>
+      <c r="AU102" s="37"/>
+      <c r="AV102" s="37"/>
+      <c r="AW102" s="37"/>
+      <c r="AX102" s="37"/>
+      <c r="AY102" s="37"/>
+      <c r="AZ102" s="37"/>
+      <c r="BA102" s="37"/>
+      <c r="BB102" s="37"/>
+      <c r="BC102" s="37"/>
+      <c r="BD102" s="37"/>
     </row>
-    <row r="103" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C103" s="37"/>
       <c r="D103" s="37"/>
       <c r="E103" s="37"/>
@@ -58477,82 +58737,272 @@
       <c r="M103" s="37"/>
       <c r="N103" s="37"/>
       <c r="O103" s="37"/>
+      <c r="P103" s="37"/>
+      <c r="Q103" s="37"/>
+      <c r="R103" s="37"/>
+      <c r="S103" s="37"/>
+      <c r="T103" s="37"/>
+      <c r="U103" s="37"/>
+      <c r="V103" s="37"/>
+      <c r="W103" s="37"/>
       <c r="X103" s="37"/>
       <c r="Y103" s="37"/>
       <c r="Z103" s="37"/>
       <c r="AA103" s="37"/>
       <c r="AB103" s="37"/>
       <c r="AC103" s="37"/>
+      <c r="AD103" s="37"/>
+      <c r="AE103" s="37"/>
+      <c r="AF103" s="37"/>
+      <c r="AG103" s="37"/>
+      <c r="AH103" s="37"/>
+      <c r="AI103" s="37"/>
+      <c r="AJ103" s="37"/>
+      <c r="AK103" s="37"/>
+      <c r="AL103" s="37"/>
+      <c r="AM103" s="37"/>
+      <c r="AN103" s="37"/>
+      <c r="AO103" s="37"/>
+      <c r="AP103" s="37"/>
+      <c r="AQ103" s="37"/>
+      <c r="AR103" s="37"/>
+      <c r="AS103" s="37"/>
+      <c r="AT103" s="37"/>
+      <c r="AU103" s="37"/>
+      <c r="AV103" s="37"/>
+      <c r="AW103" s="37"/>
+      <c r="AX103" s="37"/>
+      <c r="AY103" s="37"/>
+      <c r="AZ103" s="37"/>
+      <c r="BA103" s="37"/>
+      <c r="BB103" s="37"/>
+      <c r="BC103" s="37"/>
+      <c r="BD103" s="37"/>
     </row>
-    <row r="104" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="26"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
+      <c r="C104" s="37"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="37"/>
+      <c r="F104" s="37"/>
+      <c r="G104" s="37"/>
+      <c r="H104" s="37"/>
+      <c r="I104" s="37"/>
+      <c r="J104" s="37"/>
+      <c r="K104" s="37"/>
+      <c r="L104" s="37"/>
+      <c r="M104" s="37"/>
+      <c r="N104" s="37"/>
+      <c r="O104" s="37"/>
+      <c r="P104" s="37"/>
+      <c r="Q104" s="37"/>
+      <c r="R104" s="37"/>
+      <c r="S104" s="37"/>
+      <c r="T104" s="37"/>
+      <c r="U104" s="37"/>
+      <c r="V104" s="37"/>
+      <c r="W104" s="37"/>
+      <c r="X104" s="37"/>
+      <c r="Y104" s="37"/>
+      <c r="Z104" s="37"/>
+      <c r="AA104" s="37"/>
+      <c r="AB104" s="37"/>
+      <c r="AC104" s="37"/>
+      <c r="AD104" s="37"/>
+      <c r="AE104" s="37"/>
+      <c r="AF104" s="37"/>
+      <c r="AG104" s="37"/>
+      <c r="AH104" s="37"/>
+      <c r="AI104" s="37"/>
+      <c r="AJ104" s="37"/>
+      <c r="AK104" s="37"/>
+      <c r="AL104" s="37"/>
+      <c r="AM104" s="37"/>
+      <c r="AN104" s="37"/>
+      <c r="AO104" s="37"/>
+      <c r="AP104" s="37"/>
+      <c r="AQ104" s="37"/>
+      <c r="AR104" s="37"/>
+      <c r="AS104" s="37"/>
+      <c r="AT104" s="37"/>
+      <c r="AU104" s="37"/>
+      <c r="AV104" s="37"/>
+      <c r="AW104" s="37"/>
+      <c r="AX104" s="37"/>
+      <c r="AY104" s="37"/>
+      <c r="AZ104" s="37"/>
+      <c r="BA104" s="37"/>
+      <c r="BB104" s="37"/>
+      <c r="BC104" s="37"/>
+      <c r="BD104" s="37"/>
     </row>
-    <row r="105" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="C105" s="30"/>
-      <c r="D105" s="30"/>
-      <c r="E105" s="30"/>
-      <c r="F105" s="30"/>
-      <c r="G105" s="30"/>
-      <c r="H105" s="30"/>
-      <c r="I105" s="30"/>
-      <c r="J105" s="30"/>
-      <c r="K105" s="30"/>
-      <c r="L105" s="30"/>
-      <c r="M105" s="30"/>
-      <c r="N105" s="30"/>
-      <c r="O105" s="30"/>
-      <c r="X105" s="30"/>
-      <c r="Y105" s="30"/>
-      <c r="Z105" s="30"/>
-      <c r="AA105" s="30"/>
-      <c r="AB105" s="30"/>
-      <c r="AC105" s="30"/>
+    <row r="105" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C105" s="37"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="37"/>
+      <c r="F105" s="37"/>
+      <c r="G105" s="37"/>
+      <c r="H105" s="37"/>
+      <c r="I105" s="37"/>
+      <c r="J105" s="37"/>
+      <c r="K105" s="37"/>
+      <c r="L105" s="37"/>
+      <c r="M105" s="37"/>
+      <c r="N105" s="37"/>
+      <c r="O105" s="37"/>
+      <c r="P105" s="37"/>
+      <c r="Q105" s="37"/>
+      <c r="R105" s="37"/>
+      <c r="S105" s="37"/>
+      <c r="T105" s="37"/>
+      <c r="U105" s="37"/>
+      <c r="V105" s="37"/>
+      <c r="W105" s="37"/>
+      <c r="X105" s="37"/>
+      <c r="Y105" s="37"/>
+      <c r="Z105" s="37"/>
+      <c r="AA105" s="37"/>
+      <c r="AB105" s="37"/>
+      <c r="AC105" s="37"/>
+      <c r="AD105" s="37"/>
+      <c r="AE105" s="37"/>
+      <c r="AF105" s="37"/>
+      <c r="AG105" s="37"/>
+      <c r="AH105" s="37"/>
+      <c r="AI105" s="37"/>
+      <c r="AJ105" s="37"/>
+      <c r="AK105" s="37"/>
+      <c r="AL105" s="37"/>
+      <c r="AM105" s="37"/>
+      <c r="AN105" s="37"/>
+      <c r="AO105" s="37"/>
+      <c r="AP105" s="37"/>
+      <c r="AQ105" s="37"/>
+      <c r="AR105" s="37"/>
+      <c r="AS105" s="37"/>
+      <c r="AT105" s="37"/>
+      <c r="AU105" s="37"/>
+      <c r="AV105" s="37"/>
+      <c r="AW105" s="37"/>
+      <c r="AX105" s="37"/>
+      <c r="AY105" s="37"/>
+      <c r="AZ105" s="37"/>
+      <c r="BA105" s="37"/>
+      <c r="BB105" s="37"/>
+      <c r="BC105" s="37"/>
+      <c r="BD105" s="37"/>
     </row>
-    <row r="106" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="C106" s="30"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="30"/>
-      <c r="F106" s="30"/>
-      <c r="G106" s="30"/>
-      <c r="H106" s="30"/>
-      <c r="I106" s="30"/>
-      <c r="J106" s="30"/>
-      <c r="K106" s="30"/>
-      <c r="L106" s="30"/>
-      <c r="M106" s="30"/>
-      <c r="N106" s="30"/>
-      <c r="O106" s="30"/>
-      <c r="X106" s="30"/>
-      <c r="Y106" s="30"/>
-      <c r="Z106" s="30"/>
-      <c r="AA106" s="30"/>
-      <c r="AB106" s="30"/>
-      <c r="AC106" s="30"/>
+    <row r="106" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C106" s="37"/>
+      <c r="D106" s="37"/>
+      <c r="E106" s="37"/>
+      <c r="F106" s="37"/>
+      <c r="G106" s="37"/>
+      <c r="H106" s="37"/>
+      <c r="I106" s="37"/>
+      <c r="J106" s="37"/>
+      <c r="K106" s="37"/>
+      <c r="L106" s="37"/>
+      <c r="M106" s="37"/>
+      <c r="N106" s="37"/>
+      <c r="O106" s="37"/>
+      <c r="P106" s="37"/>
+      <c r="Q106" s="37"/>
+      <c r="R106" s="37"/>
+      <c r="S106" s="37"/>
+      <c r="T106" s="37"/>
+      <c r="U106" s="37"/>
+      <c r="V106" s="37"/>
+      <c r="W106" s="37"/>
+      <c r="X106" s="37"/>
+      <c r="Y106" s="37"/>
+      <c r="Z106" s="37"/>
+      <c r="AA106" s="37"/>
+      <c r="AB106" s="37"/>
+      <c r="AC106" s="37"/>
+      <c r="AD106" s="37"/>
+      <c r="AE106" s="37"/>
+      <c r="AF106" s="37"/>
+      <c r="AG106" s="37"/>
+      <c r="AH106" s="37"/>
+      <c r="AI106" s="37"/>
+      <c r="AJ106" s="37"/>
+      <c r="AK106" s="37"/>
+      <c r="AL106" s="37"/>
+      <c r="AM106" s="37"/>
+      <c r="AN106" s="37"/>
+      <c r="AO106" s="37"/>
+      <c r="AP106" s="37"/>
+      <c r="AQ106" s="37"/>
+      <c r="AR106" s="37"/>
+      <c r="AS106" s="37"/>
+      <c r="AT106" s="37"/>
+      <c r="AU106" s="37"/>
+      <c r="AV106" s="37"/>
+      <c r="AW106" s="37"/>
+      <c r="AX106" s="37"/>
+      <c r="AY106" s="37"/>
+      <c r="AZ106" s="37"/>
+      <c r="BA106" s="37"/>
+      <c r="BB106" s="37"/>
+      <c r="BC106" s="37"/>
+      <c r="BD106" s="37"/>
     </row>
-    <row r="107" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="C107" s="30"/>
-      <c r="D107" s="30"/>
-      <c r="E107" s="30"/>
-      <c r="F107" s="30"/>
-      <c r="G107" s="30"/>
-      <c r="H107" s="30"/>
-      <c r="I107" s="30"/>
-      <c r="J107" s="30"/>
-      <c r="K107" s="30"/>
-      <c r="L107" s="30"/>
-      <c r="M107" s="30"/>
-      <c r="N107" s="30"/>
-      <c r="O107" s="30"/>
-      <c r="X107" s="30"/>
-      <c r="Y107" s="30"/>
-      <c r="Z107" s="30"/>
-      <c r="AA107" s="30"/>
-      <c r="AB107" s="30"/>
-      <c r="AC107" s="30"/>
+    <row r="107" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C107" s="37"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="37"/>
+      <c r="F107" s="37"/>
+      <c r="G107" s="37"/>
+      <c r="H107" s="37"/>
+      <c r="I107" s="37"/>
+      <c r="J107" s="37"/>
+      <c r="K107" s="37"/>
+      <c r="L107" s="37"/>
+      <c r="M107" s="37"/>
+      <c r="N107" s="37"/>
+      <c r="O107" s="37"/>
+      <c r="P107" s="37"/>
+      <c r="Q107" s="37"/>
+      <c r="R107" s="37"/>
+      <c r="S107" s="37"/>
+      <c r="T107" s="37"/>
+      <c r="U107" s="37"/>
+      <c r="V107" s="37"/>
+      <c r="W107" s="37"/>
+      <c r="X107" s="37"/>
+      <c r="Y107" s="37"/>
+      <c r="Z107" s="37"/>
+      <c r="AA107" s="37"/>
+      <c r="AB107" s="37"/>
+      <c r="AC107" s="37"/>
+      <c r="AD107" s="37"/>
+      <c r="AE107" s="37"/>
+      <c r="AF107" s="37"/>
+      <c r="AG107" s="37"/>
+      <c r="AH107" s="37"/>
+      <c r="AI107" s="37"/>
+      <c r="AJ107" s="37"/>
+      <c r="AK107" s="37"/>
+      <c r="AL107" s="37"/>
+      <c r="AM107" s="37"/>
+      <c r="AN107" s="37"/>
+      <c r="AO107" s="37"/>
+      <c r="AP107" s="37"/>
+      <c r="AQ107" s="37"/>
+      <c r="AR107" s="37"/>
+      <c r="AS107" s="37"/>
+      <c r="AT107" s="37"/>
+      <c r="AU107" s="37"/>
+      <c r="AV107" s="37"/>
+      <c r="AW107" s="37"/>
+      <c r="AX107" s="37"/>
+      <c r="AY107" s="37"/>
+      <c r="AZ107" s="37"/>
+      <c r="BA107" s="37"/>
+      <c r="BB107" s="37"/>
+      <c r="BC107" s="37"/>
+      <c r="BD107" s="37"/>
     </row>
     <row r="108" spans="1:56" x14ac:dyDescent="0.3">
       <c r="C108" s="30"/>
@@ -58726,28 +59176,62 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="BB37:BD37"/>
-    <mergeCell ref="AM37:AO37"/>
-    <mergeCell ref="AP37:AR37"/>
-    <mergeCell ref="AS37:AU37"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="U37:W37"/>
-    <mergeCell ref="AD37:AF37"/>
-    <mergeCell ref="AG37:AI37"/>
-    <mergeCell ref="X37:Z37"/>
-    <mergeCell ref="AA37:AC37"/>
-    <mergeCell ref="AV37:AX37"/>
-    <mergeCell ref="AY37:BA37"/>
-    <mergeCell ref="C39:W39"/>
-    <mergeCell ref="C40:W40"/>
-    <mergeCell ref="X39:BA39"/>
-    <mergeCell ref="X40:BA40"/>
-    <mergeCell ref="AJ37:AL37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="BB60:BD60"/>
+    <mergeCell ref="C61:W61"/>
+    <mergeCell ref="X61:BA61"/>
+    <mergeCell ref="BB61:BD61"/>
+    <mergeCell ref="C62:W62"/>
+    <mergeCell ref="X62:BA62"/>
+    <mergeCell ref="BB62:BD62"/>
+    <mergeCell ref="C60:W60"/>
+    <mergeCell ref="X60:BA60"/>
+    <mergeCell ref="X58:BA58"/>
+    <mergeCell ref="BB58:BD58"/>
+    <mergeCell ref="C59:W59"/>
+    <mergeCell ref="X59:BA59"/>
+    <mergeCell ref="BB59:BD59"/>
+    <mergeCell ref="C58:W58"/>
+    <mergeCell ref="AP53:AR53"/>
+    <mergeCell ref="AS53:AU53"/>
+    <mergeCell ref="AV53:AX53"/>
+    <mergeCell ref="AY53:BA53"/>
+    <mergeCell ref="BB53:BD53"/>
+    <mergeCell ref="AV52:AX52"/>
+    <mergeCell ref="AY52:BA52"/>
+    <mergeCell ref="BB52:BD52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="O53:Q53"/>
+    <mergeCell ref="R53:T53"/>
+    <mergeCell ref="U53:W53"/>
+    <mergeCell ref="X53:Z53"/>
+    <mergeCell ref="AA53:AC53"/>
+    <mergeCell ref="AD53:AF53"/>
+    <mergeCell ref="AG53:AI53"/>
+    <mergeCell ref="AJ53:AL53"/>
+    <mergeCell ref="AM53:AO53"/>
+    <mergeCell ref="AG52:AI52"/>
+    <mergeCell ref="AJ52:AL52"/>
+    <mergeCell ref="AM52:AO52"/>
+    <mergeCell ref="AP52:AR52"/>
+    <mergeCell ref="AS52:AU52"/>
+    <mergeCell ref="R52:T52"/>
+    <mergeCell ref="U52:W52"/>
+    <mergeCell ref="X52:Z52"/>
+    <mergeCell ref="AA52:AC52"/>
+    <mergeCell ref="AD52:AF52"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="O52:Q52"/>
+    <mergeCell ref="AP51:AR51"/>
+    <mergeCell ref="AS51:AU51"/>
+    <mergeCell ref="AV51:AX51"/>
+    <mergeCell ref="AY51:BA51"/>
+    <mergeCell ref="BB51:BD51"/>
     <mergeCell ref="BB39:BD39"/>
     <mergeCell ref="BB40:BD40"/>
     <mergeCell ref="C41:BD41"/>
@@ -58764,62 +59248,28 @@
     <mergeCell ref="AG51:AI51"/>
     <mergeCell ref="AJ51:AL51"/>
     <mergeCell ref="AM51:AO51"/>
-    <mergeCell ref="AP51:AR51"/>
-    <mergeCell ref="AS51:AU51"/>
-    <mergeCell ref="AV51:AX51"/>
-    <mergeCell ref="AY51:BA51"/>
-    <mergeCell ref="BB51:BD51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="O52:Q52"/>
-    <mergeCell ref="R52:T52"/>
-    <mergeCell ref="U52:W52"/>
-    <mergeCell ref="X52:Z52"/>
-    <mergeCell ref="AA52:AC52"/>
-    <mergeCell ref="AD52:AF52"/>
-    <mergeCell ref="AG52:AI52"/>
-    <mergeCell ref="AJ52:AL52"/>
-    <mergeCell ref="AM52:AO52"/>
-    <mergeCell ref="AP52:AR52"/>
-    <mergeCell ref="AS52:AU52"/>
-    <mergeCell ref="AV52:AX52"/>
-    <mergeCell ref="AY52:BA52"/>
-    <mergeCell ref="BB52:BD52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="O53:Q53"/>
-    <mergeCell ref="R53:T53"/>
-    <mergeCell ref="U53:W53"/>
-    <mergeCell ref="X53:Z53"/>
-    <mergeCell ref="AA53:AC53"/>
-    <mergeCell ref="AD53:AF53"/>
-    <mergeCell ref="AG53:AI53"/>
-    <mergeCell ref="AJ53:AL53"/>
-    <mergeCell ref="AM53:AO53"/>
-    <mergeCell ref="AP53:AR53"/>
-    <mergeCell ref="AS53:AU53"/>
-    <mergeCell ref="AV53:AX53"/>
-    <mergeCell ref="AY53:BA53"/>
-    <mergeCell ref="BB53:BD53"/>
-    <mergeCell ref="X58:BA58"/>
-    <mergeCell ref="BB58:BD58"/>
-    <mergeCell ref="C59:W59"/>
-    <mergeCell ref="X59:BA59"/>
-    <mergeCell ref="BB59:BD59"/>
-    <mergeCell ref="C58:W58"/>
-    <mergeCell ref="BB60:BD60"/>
-    <mergeCell ref="C61:W61"/>
-    <mergeCell ref="X61:BA61"/>
-    <mergeCell ref="BB61:BD61"/>
-    <mergeCell ref="C62:W62"/>
-    <mergeCell ref="X62:BA62"/>
-    <mergeCell ref="BB62:BD62"/>
-    <mergeCell ref="C60:W60"/>
-    <mergeCell ref="X60:BA60"/>
+    <mergeCell ref="C39:W39"/>
+    <mergeCell ref="C40:W40"/>
+    <mergeCell ref="X39:BA39"/>
+    <mergeCell ref="X40:BA40"/>
+    <mergeCell ref="AJ37:AL37"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="BB37:BD37"/>
+    <mergeCell ref="AM37:AO37"/>
+    <mergeCell ref="AP37:AR37"/>
+    <mergeCell ref="AS37:AU37"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="U37:W37"/>
+    <mergeCell ref="AD37:AF37"/>
+    <mergeCell ref="AG37:AI37"/>
+    <mergeCell ref="X37:Z37"/>
+    <mergeCell ref="AA37:AC37"/>
+    <mergeCell ref="AV37:AX37"/>
+    <mergeCell ref="AY37:BA37"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="41" orientation="portrait" r:id="rId1"/>
